--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="344">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +57,1014 @@
   </si>
   <si>
     <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Awada.ashx</t>
+  </si>
+  <si>
+    <t>Alexander van Akkooi</t>
+  </si>
+  <si>
+    <t>Erasmus University Medical Center</t>
+  </si>
+  <si>
+    <t>Rotterdam, the Netherlands</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Akkooi.ashx?</t>
+  </si>
+  <si>
+    <t>Anas Al-Janadi</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Michigan State University</t>
+  </si>
+  <si>
+    <t>East Lansing, Michigan, United States</t>
+  </si>
+  <si>
+    <t>Asim Amin</t>
+  </si>
+  <si>
+    <t>Levine Cancer Institute</t>
+  </si>
+  <si>
+    <t>Charlotte, North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Asim.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=dd88f9a9-2db0-475d-9997-4aa5ab3d3cff </t>
+  </si>
+  <si>
+    <t>Carey Anders</t>
+  </si>
+  <si>
+    <t>UNC Lineberger Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Chapel Hill, North Carolina</t>
+  </si>
+  <si>
+    <t>Carlos Arteaga</t>
+  </si>
+  <si>
+    <t>Vanderbilt University
+Vanderbilt-Ingram Cancer Center</t>
+  </si>
+  <si>
+    <t>Nashville, Tennessee, United States</t>
+  </si>
+  <si>
+    <t>Deborah Armstrong</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>Baltimore, Maryland, United States</t>
+  </si>
+  <si>
+    <t>Dirk Arnold</t>
+  </si>
+  <si>
+    <t>Tumor Biology Center Freiburg</t>
+  </si>
+  <si>
+    <t>Freiburg, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/arnold.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=66ba9e8c-5885-440c-96cc-2e2fa591211f</t>
+  </si>
+  <si>
+    <t>Emili Montserrat</t>
+  </si>
+  <si>
+    <t>Institute of Hematology and Oncology</t>
+  </si>
+  <si>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>Emmanuel S. Antonarakis</t>
+  </si>
+  <si>
+    <t>Johns Hopkins Sidney Kimmel, Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Fabrice André</t>
+  </si>
+  <si>
+    <t>Institute Gustave Roussy</t>
+  </si>
+  <si>
+    <t>Villejuif, France</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/andre.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ec5b434a-0cc9-4d0a-9de6-2a7eb60dc646</t>
+  </si>
+  <si>
+    <t>Monica Arnedos, MD</t>
+  </si>
+  <si>
+    <t>Frédéric Amant</t>
+  </si>
+  <si>
+    <t>Catholic University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leuven, Belgium </t>
+  </si>
+  <si>
+    <t>Ghassan Abou-Alfa</t>
+  </si>
+  <si>
+    <t>Memorial Sloan-Kettering Cancer Center</t>
+  </si>
+  <si>
+    <t>New York, New York, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/abou.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=82f4ba5e-3ca6-4eba-898d-e9865d248259</t>
+  </si>
+  <si>
+    <t>Gilberto Amorim</t>
+  </si>
+  <si>
+    <t>National Cancer Institute</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>Giovanni Aletti</t>
+  </si>
+  <si>
+    <t>European Institute of Oncology</t>
+  </si>
+  <si>
+    <t>Milan, Italy</t>
+  </si>
+  <si>
+    <t>Jaffer Ajani</t>
+  </si>
+  <si>
+    <t>The University of Texas
+M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Houston, Texas, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Armitage.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=6014d92a-095f-4b35-9b09-374bb7f63eeb</t>
+  </si>
+  <si>
+    <t>James Armitage</t>
+  </si>
+  <si>
+    <t>University of Nebraska Medical Center</t>
+  </si>
+  <si>
+    <t>Omaha, Nebraska, United States</t>
+  </si>
+  <si>
+    <t>Jane Apperley</t>
+  </si>
+  <si>
+    <t>Imperial College Healthcare NHS Trust</t>
+  </si>
+  <si>
+    <t>London, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/JaneApperley.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d08f5e18-a2a8-481c-8bca-0e22d8d2bddd</t>
+  </si>
+  <si>
+    <t>John Adamson</t>
+  </si>
+  <si>
+    <t>University of California, San Diego
+Moores Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego, California, United States </t>
+  </si>
+  <si>
+    <t>John C Araujo</t>
+  </si>
+  <si>
+    <t>The University of Texas M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Kathy Albain</t>
+  </si>
+  <si>
+    <t>Loyola University Chicago</t>
+  </si>
+  <si>
+    <t>Loyola University Chicago, Maywood, Illinois</t>
+  </si>
+  <si>
+    <t>Kenneth Anderson</t>
+  </si>
+  <si>
+    <t>Dana-Farber Cancer Institute</t>
+  </si>
+  <si>
+    <t>Boston, Massachusetts</t>
+  </si>
+  <si>
+    <t>Lynn Ashby</t>
+  </si>
+  <si>
+    <t>Barrow Neurological Institute</t>
+  </si>
+  <si>
+    <t>Phoenix, Arizona</t>
+  </si>
+  <si>
+    <t>Manmeet Ahluwalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD, FACP </t>
+  </si>
+  <si>
+    <t>Cleveland Clinic</t>
+  </si>
+  <si>
+    <t>Cleveland, Ohio</t>
+  </si>
+  <si>
+    <t>Martha Arellano</t>
+  </si>
+  <si>
+    <t>Winship Cancer Institute</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Matti Aapro</t>
+  </si>
+  <si>
+    <t>Clinique de Genolier</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/aapro.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0f16246b-b154-4fb5-950d-cf31c8dd137a</t>
+  </si>
+  <si>
+    <t>Michael Alvarado</t>
+  </si>
+  <si>
+    <t>University of California San Francisco</t>
+  </si>
+  <si>
+    <t>San Francisco, California, United States</t>
+  </si>
+  <si>
+    <t>Michael Andersson</t>
+  </si>
+  <si>
+    <t>Michael Atkins</t>
+  </si>
+  <si>
+    <t>Georgetown-Lombardi Comprehensive Cancer</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>Mojtaba Akhtari</t>
+  </si>
+  <si>
+    <t>Omaha, Nebraska</t>
+  </si>
+  <si>
+    <t>Pekka Anttila</t>
+  </si>
+  <si>
+    <t>Helsinki University Central Hospital</t>
+  </si>
+  <si>
+    <t>Helsinki, Finland</t>
+  </si>
+  <si>
+    <t>Peter Albers</t>
+  </si>
+  <si>
+    <t>Düsseldorf University</t>
+  </si>
+  <si>
+    <t>Düsseldorf, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/albers.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f436cc17-b9dd-452c-b720-9a85debdd20a</t>
+  </si>
+  <si>
+    <t>Philippe Autier</t>
+  </si>
+  <si>
+    <t>International Prevention Research Institute</t>
+  </si>
+  <si>
+    <t>Lyon, France</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Autier.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=117f0b23-6562-45cf-a518-9646a381e7a3'</t>
+  </si>
+  <si>
+    <t>Ranjana Advani</t>
+  </si>
+  <si>
+    <t>Stanford University School of Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford, California, United States </t>
+  </si>
+  <si>
+    <t>René Adam</t>
+  </si>
+  <si>
+    <t>Paul Brousse Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/adam.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9865e9e2-cbb9-4d6c-8f0d-8e988f2e80dc</t>
+  </si>
+  <si>
+    <t>Roberto Angioli</t>
+  </si>
+  <si>
+    <t>University of Rome</t>
+  </si>
+  <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>Salah-Eddin Al-Batran</t>
+  </si>
+  <si>
+    <t>Krankenhaus Nordwest – University Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankfurt, Germany </t>
+  </si>
+  <si>
+    <t>Sanjiv Agarwala</t>
+  </si>
+  <si>
+    <t>St. Luke’s Cancer Care Associates</t>
+  </si>
+  <si>
+    <t>Bethlehem, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>Sikander Ailawadhi</t>
+  </si>
+  <si>
+    <t>Los Angeles, California, United States</t>
+  </si>
+  <si>
+    <t>University of Southern California
+Norris Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>A. William Blackstock, Jr</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>Winston-Salem, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>Adam Bass</t>
+  </si>
+  <si>
+    <t>Boston, Massachusetts, United States</t>
+  </si>
+  <si>
+    <t>Adam Brufsky</t>
+  </si>
+  <si>
+    <t>Agop Bedikian</t>
+  </si>
+  <si>
+    <t>The University of Texas MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston, TX, USA </t>
+  </si>
+  <si>
+    <t>Al Benson</t>
+  </si>
+  <si>
+    <t>III, MD, FACP</t>
+  </si>
+  <si>
+    <t>Robert H. Lurie Comprehensive Cancer Center
+Northwestern University</t>
+  </si>
+  <si>
+    <t>Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>Alan Burnett</t>
+  </si>
+  <si>
+    <t>MD, FRCP</t>
+  </si>
+  <si>
+    <t>Cardiff University School of Medicine</t>
+  </si>
+  <si>
+    <t>Cardiff, United Kingdom</t>
+  </si>
+  <si>
+    <t>Alba A. Brandes</t>
+  </si>
+  <si>
+    <t>Azienda USL Bellaria-Maggiore Hospital</t>
+  </si>
+  <si>
+    <t>Bologna, Italy</t>
+  </si>
+  <si>
+    <t>Anja Bosserhoff</t>
+  </si>
+  <si>
+    <t>University Hospital of Regensburg</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Regensburg, Germany</t>
+  </si>
+  <si>
+    <t>Arnold Berliner</t>
+  </si>
+  <si>
+    <t>Lynn Cancer Institute - West</t>
+  </si>
+  <si>
+    <t>Boca Raton, Florida</t>
+  </si>
+  <si>
+    <t>Benjamin Besse</t>
+  </si>
+  <si>
+    <t>Institut Gustave Roussy</t>
+  </si>
+  <si>
+    <t>Carlos Barrios</t>
+  </si>
+  <si>
+    <t>Carlos Besses</t>
+  </si>
+  <si>
+    <t>Hospital del Mar</t>
+  </si>
+  <si>
+    <t>Catherine Broome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgetown University Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington, District of Columbia, United States </t>
+  </si>
+  <si>
+    <t>Cathy Eng</t>
+  </si>
+  <si>
+    <t>The University of Texas    
+M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Houston, Texas</t>
+  </si>
+  <si>
+    <t>Chandra Belani</t>
+  </si>
+  <si>
+    <t>Penn State
+Milton S. Hershey Medical Center</t>
+  </si>
+  <si>
+    <t>Hershey, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Christian Buske</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Dale Bixby</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Ann Arbor, Michigan</t>
+  </si>
+  <si>
+    <t>Daniela Bota</t>
+  </si>
+  <si>
+    <t>University of California, Irvine
+Irvine, California</t>
+  </si>
+  <si>
+    <t>Dean Bajorin</t>
+  </si>
+  <si>
+    <t>New York, United States</t>
+  </si>
+  <si>
+    <t>Fabrice Barlesi</t>
+  </si>
+  <si>
+    <t>University Méditerranée</t>
+  </si>
+  <si>
+    <t>Marseille, France</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Barlesi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9451546d-cb13-4656-be3f-9f34382b1aba</t>
+  </si>
+  <si>
+    <t>Fadi Braiteh</t>
+  </si>
+  <si>
+    <t>US Oncology Research Network
+Comprehensive Cancer Centers of Nevada</t>
+  </si>
+  <si>
+    <t>Las Vegas, Nevada</t>
+  </si>
+  <si>
+    <t>Fiona Blackhall</t>
+  </si>
+  <si>
+    <t>University of Manchester
+The Christie Hospital</t>
+  </si>
+  <si>
+    <t>Manchester, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Blackhall.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8e2b6ce3-2e8b-4ba6-8105-1db2c8c62bfe</t>
+  </si>
+  <si>
+    <t>Francesc Bosch</t>
+  </si>
+  <si>
+    <t>Hospital Vall d'Hebron</t>
+  </si>
+  <si>
+    <t>Gabriela M. Baerlocher</t>
+  </si>
+  <si>
+    <t>University Hospital and University of Bern</t>
+  </si>
+  <si>
+    <t>Bern, Switzerland</t>
+  </si>
+  <si>
+    <t>George Blumenschein</t>
+  </si>
+  <si>
+    <t>Hal Burstein</t>
+  </si>
+  <si>
+    <t>Harold Burstein</t>
+  </si>
+  <si>
+    <t>Harry Bear</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth University</t>
+  </si>
+  <si>
+    <t>Richmond, Virginia, United States</t>
+  </si>
+  <si>
+    <t>Jaafar Bennouna</t>
+  </si>
+  <si>
+    <t>Institut de Cancérologie de l’Ouest</t>
+  </si>
+  <si>
+    <t>Nantes, France</t>
+  </si>
+  <si>
+    <t>Jacques Bonneterre</t>
+  </si>
+  <si>
+    <t>Centre Oscar Lambret</t>
+  </si>
+  <si>
+    <t>Lille, France</t>
+  </si>
+  <si>
+    <t>James B. Bussel</t>
+  </si>
+  <si>
+    <t>Weill Medical College of Cornell University</t>
+  </si>
+  <si>
+    <t>Jean-Yves Blay</t>
+  </si>
+  <si>
+    <t>Université Claude Bernard</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/blay.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e62e81c1-cd80-4669-814c-62184096cbb2</t>
+  </si>
+  <si>
+    <t>Jennifer Boals</t>
+  </si>
+  <si>
+    <t>Methodist Breast Center</t>
+  </si>
+  <si>
+    <t>Germantown, Tennessee</t>
+  </si>
+  <si>
+    <t>Joachim Bischoff</t>
+  </si>
+  <si>
+    <t>Joan Bladé</t>
+  </si>
+  <si>
+    <t>Hospital Clinic de Barcelona</t>
+  </si>
+  <si>
+    <t>Joaquim Bellmunt</t>
+  </si>
+  <si>
+    <t>University Hospital del Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona, Spain </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/bellmunt.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=50d9d72f-bfdd-461c-a1b7-72c85fd2eaa6</t>
+  </si>
+  <si>
+    <t>Johanna Bendell</t>
+  </si>
+  <si>
+    <t>Sarah Cannon Research Institute</t>
+  </si>
+  <si>
+    <t>John Burke</t>
+  </si>
+  <si>
+    <t>US Oncology Research</t>
+  </si>
+  <si>
+    <t>The Woodlands, Texas, United States</t>
+  </si>
+  <si>
+    <t>Jordan Berlin</t>
+  </si>
+  <si>
+    <t>Vanderbilt Ingram Cancer Center</t>
+  </si>
+  <si>
+    <t>José Baselga</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/baselga.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a1a4b5dc-1f30-4c76-9327-efbb0cba548f</t>
+  </si>
+  <si>
+    <t>Judith Balmaña</t>
+  </si>
+  <si>
+    <t>Vall d’Hebron University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/balmana.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7a57a6b2-1dc0-42e1-9c64-219ba3b40d64</t>
+  </si>
+  <si>
+    <t>Jürgen Becker</t>
+  </si>
+  <si>
+    <t>Medical University of Graz</t>
+  </si>
+  <si>
+    <t>Graz, Austria</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Becker.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1005fce4-bcad-4839-aac1-5c2cae82efe1</t>
+  </si>
+  <si>
+    <t>Kimberly Blackwell</t>
+  </si>
+  <si>
+    <t>Duke University Medical Center</t>
+  </si>
+  <si>
+    <t>Durham, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Blackwell.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f454bd96-00d3-4a06-a9ca-b18a887dfa59</t>
+  </si>
+  <si>
+    <t>Kristina Bowen</t>
+  </si>
+  <si>
+    <t>Georgia Cancer Specialists</t>
+  </si>
+  <si>
+    <t>Lars Bastholt</t>
+  </si>
+  <si>
+    <t>Odense University Hospital</t>
+  </si>
+  <si>
+    <t>Odense, Denmark</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/lars_bastholt.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5be40e41-0ac5-48c8-b6a4-162dbe7744c8</t>
+  </si>
+  <si>
+    <t>Laura Biganzoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital of Prato Istituto Toscano Tumori </t>
+  </si>
+  <si>
+    <t>Prato, Italy</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Biganzoli.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f30123c1-d310-4342-a662-656ef1558fb5</t>
+  </si>
+  <si>
+    <t>Laurence Boxer</t>
+  </si>
+  <si>
+    <t>Linda Bosserman</t>
+  </si>
+  <si>
+    <t>Wilshire Oncology Medical Group</t>
+  </si>
+  <si>
+    <t>Rancho Cucamonga, California</t>
+  </si>
+  <si>
+    <t>Marcia Simpson Brose</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Philadelphia, Pennsylvania</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/marcia_brose.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=bc448b2d-7d9b-45c1-b84e-33a336240f74</t>
+  </si>
+  <si>
+    <t>Mario Boccadoro</t>
+  </si>
+  <si>
+    <t>University of Torino</t>
+  </si>
+  <si>
+    <t>Torino, Italy</t>
+  </si>
+  <si>
+    <t>Matthew Ballo</t>
+  </si>
+  <si>
+    <t>University of Tennessee Health Science Center</t>
+  </si>
+  <si>
+    <t>Memphis, Tennessee</t>
+  </si>
+  <si>
+    <t>Merav Ben-David</t>
+  </si>
+  <si>
+    <t>Sheba Medical Center</t>
+  </si>
+  <si>
+    <t>Tel Hashomer, Israel</t>
+  </si>
+  <si>
+    <t>Michael Berry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD,FACS </t>
+  </si>
+  <si>
+    <t>The West Clinic</t>
+  </si>
+  <si>
+    <t>Michele Baccarani</t>
+  </si>
+  <si>
+    <t>University of Bologna</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/baccarani.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=87911178-c9ca-4a9e-a9a4-f8c9adc53dce</t>
+  </si>
+  <si>
+    <t>Nicholas Butowski</t>
+  </si>
+  <si>
+    <t>University of California, San Francisco</t>
+  </si>
+  <si>
+    <t>San Francisco, California</t>
+  </si>
+  <si>
+    <t>Niels Boone</t>
+  </si>
+  <si>
+    <t>PharmD</t>
+  </si>
+  <si>
+    <t>Orbis Medical Center</t>
+  </si>
+  <si>
+    <t>Sittard-Geleen, the Netherlands</t>
+  </si>
+  <si>
+    <t>Øyvind S. Bruland</t>
+  </si>
+  <si>
+    <t>BSc, MD, PhD</t>
+  </si>
+  <si>
+    <t>University of Oslo
+The Norwegian Radium Hospital</t>
+  </si>
+  <si>
+    <t>Oslo, Norway</t>
+  </si>
+  <si>
+    <t>Patrick Brown</t>
+  </si>
+  <si>
+    <t>Johns Hopkins Children's Center</t>
+  </si>
+  <si>
+    <t>Baltimore, Maryland</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/brown_patrick.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=83de830c-95c3-4141-ba64-b119baf0f0b9</t>
+  </si>
+  <si>
+    <t>Peter Borchmann</t>
+  </si>
+  <si>
+    <t>University Hospital of Cologne</t>
+  </si>
+  <si>
+    <t>Cologne, Germany</t>
+  </si>
+  <si>
+    <t>Philip Bierman</t>
+  </si>
+  <si>
+    <t>University of Nebraska</t>
+  </si>
+  <si>
+    <t>Philip Bonomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rush University Cancer Center </t>
+  </si>
+  <si>
+    <t>Chicago, Illinois, United States</t>
+  </si>
+  <si>
+    <t>MD, FACOG, FACS</t>
+  </si>
+  <si>
+    <t>Robert A. Burger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fox Chase Cancer Center </t>
+  </si>
+  <si>
+    <t>Philadelphia, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>Ronald Bukowski</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic Foundation</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic Foundation, Cleveland, Ohio</t>
+  </si>
+  <si>
+    <t>Sara Bringhen</t>
+  </si>
+  <si>
+    <t>Scott Berry</t>
+  </si>
+  <si>
+    <t>Sunnybrook Odette Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Berry.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f6768837-2f72-49b3-92ff-d9b04d359770</t>
+  </si>
+  <si>
+    <t>Toronto, Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Shailender Bhatia</t>
+  </si>
+  <si>
+    <t>Seattle Cancer Care Alliance</t>
+  </si>
+  <si>
+    <t>Seattle, Washington</t>
+  </si>
+  <si>
+    <t>Steven Brem</t>
+  </si>
+  <si>
+    <t>Susan Branford</t>
+  </si>
+  <si>
+    <t>University of Adelaide</t>
+  </si>
+  <si>
+    <t>Adelaide, Australia</t>
+  </si>
+  <si>
+    <t>Susana Banerjee</t>
+  </si>
+  <si>
+    <t>MBBS, MA, MRCP, PhD</t>
+  </si>
+  <si>
+    <t>Royal Marsden Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/banerjee.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=34204773-ccf9-4c09-b085-ab4546da1466</t>
+  </si>
+  <si>
+    <t>Tanios Bekaii-Saab</t>
+  </si>
+  <si>
+    <t>Ohio State University</t>
+  </si>
+  <si>
+    <t>Ohio State University, Columbus, Ohio</t>
+  </si>
+  <si>
+    <t>Thomas Bachelot</t>
+  </si>
+  <si>
+    <t>Centre Léon Bérard</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/bachelot.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5d775713-fe09-4f9d-b391-ce6b1771325b</t>
+  </si>
+  <si>
+    <t>Medical University of Vienna</t>
+  </si>
+  <si>
+    <t>Thomas Brodowicz</t>
+  </si>
+  <si>
+    <t>Vienna, Austria</t>
+  </si>
+  <si>
+    <t>Tiziano Barbui</t>
+  </si>
+  <si>
+    <t>Ospedali Riuniti di Bergamo</t>
+  </si>
+  <si>
+    <t>Bergamo, Italy</t>
+  </si>
+  <si>
+    <t>Xavier Bosch</t>
+  </si>
+  <si>
+    <t>Institut Catala d'Oncologia</t>
+  </si>
+  <si>
+    <t>Yoav Barnea</t>
+  </si>
+  <si>
+    <t>Tel Aviv Sourasky Medical Center</t>
+  </si>
+  <si>
+    <t>Tel Aviv, Israel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +1080,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,13 +1116,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -412,73 +1450,1749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="B1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="98.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="64" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E119" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F16" r:id="rId6"/>
+    <hyperlink ref="F20" r:id="rId7"/>
+    <hyperlink ref="F21" r:id="rId8"/>
+    <hyperlink ref="F29" r:id="rId9"/>
+    <hyperlink ref="F36" r:id="rId10"/>
+    <hyperlink ref="F38" r:id="rId11"/>
+    <hyperlink ref="F65" r:id="rId12"/>
+    <hyperlink ref="F75" r:id="rId13"/>
+    <hyperlink ref="F79" r:id="rId14"/>
+    <hyperlink ref="F83" r:id="rId15"/>
+    <hyperlink ref="F84" r:id="rId16"/>
+    <hyperlink ref="F85" r:id="rId17"/>
+    <hyperlink ref="F86" r:id="rId18"/>
+    <hyperlink ref="F88" r:id="rId19"/>
+    <hyperlink ref="F89" r:id="rId20"/>
+    <hyperlink ref="F92" r:id="rId21"/>
+    <hyperlink ref="F108" r:id="rId22"/>
+    <hyperlink ref="F114" r:id="rId23"/>
+    <hyperlink ref="F112" r:id="rId24"/>
+    <hyperlink ref="F101" r:id="rId25"/>
+    <hyperlink ref="F97" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -494,16 +3208,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="344">
   <si>
     <t>Name</t>
   </si>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F119"/>
+  <dimension ref="B1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,355 +2094,358 @@
     <row r="43" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>137</v>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
@@ -2451,719 +2454,750 @@
         <v>82</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E74" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="8" t="s">
+      <c r="C78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F79" s="2" t="s">
+    </row>
+    <row r="80" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E82" s="8" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E86" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E88" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E89" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="C94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E102" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>329</v>
+        <v>71</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="10"/>
+    <row r="120" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3178,21 +3212,21 @@
     <hyperlink ref="F29" r:id="rId9"/>
     <hyperlink ref="F36" r:id="rId10"/>
     <hyperlink ref="F38" r:id="rId11"/>
-    <hyperlink ref="F65" r:id="rId12"/>
-    <hyperlink ref="F75" r:id="rId13"/>
-    <hyperlink ref="F79" r:id="rId14"/>
-    <hyperlink ref="F83" r:id="rId15"/>
-    <hyperlink ref="F84" r:id="rId16"/>
-    <hyperlink ref="F85" r:id="rId17"/>
-    <hyperlink ref="F86" r:id="rId18"/>
-    <hyperlink ref="F88" r:id="rId19"/>
-    <hyperlink ref="F89" r:id="rId20"/>
-    <hyperlink ref="F92" r:id="rId21"/>
-    <hyperlink ref="F108" r:id="rId22"/>
-    <hyperlink ref="F114" r:id="rId23"/>
-    <hyperlink ref="F112" r:id="rId24"/>
-    <hyperlink ref="F101" r:id="rId25"/>
-    <hyperlink ref="F97" r:id="rId26"/>
+    <hyperlink ref="F66" r:id="rId12"/>
+    <hyperlink ref="F76" r:id="rId13"/>
+    <hyperlink ref="F80" r:id="rId14"/>
+    <hyperlink ref="F84" r:id="rId15"/>
+    <hyperlink ref="F85" r:id="rId16"/>
+    <hyperlink ref="F86" r:id="rId17"/>
+    <hyperlink ref="F87" r:id="rId18"/>
+    <hyperlink ref="F89" r:id="rId19"/>
+    <hyperlink ref="F90" r:id="rId20"/>
+    <hyperlink ref="F93" r:id="rId21"/>
+    <hyperlink ref="F109" r:id="rId22"/>
+    <hyperlink ref="F115" r:id="rId23"/>
+    <hyperlink ref="F113" r:id="rId24"/>
+    <hyperlink ref="F102" r:id="rId25"/>
+    <hyperlink ref="F98" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -1058,6 +1058,639 @@
   </si>
   <si>
     <t>Tel Aviv, Israel</t>
+  </si>
+  <si>
+    <t>Alison Conlin</t>
+  </si>
+  <si>
+    <t>Memorial-Sloan Kettering Cancer Center</t>
+  </si>
+  <si>
+    <t>New York, NY, USA</t>
+  </si>
+  <si>
+    <t>Allen Cohn</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Cancer Center</t>
+  </si>
+  <si>
+    <t>Denver, Colorado</t>
+  </si>
+  <si>
+    <t>Amanda Cashen</t>
+  </si>
+  <si>
+    <t>St Louis, Missouri, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Cashen.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4e8e556f-1865-49b3-b94b-b423ebb71780</t>
+  </si>
+  <si>
+    <t>Andrea Cercek</t>
+  </si>
+  <si>
+    <t>Andrew Clamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer Research UK, Christie Hospital, </t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Antonio Llombart Cussac</t>
+  </si>
+  <si>
+    <t>Hospital Universitario Arnau de Vilanova</t>
+  </si>
+  <si>
+    <t>Valencia, Spain</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/cussac.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4c86fb6a-d3d2-40bd-a9ae-925d279ea372</t>
+  </si>
+  <si>
+    <t>Benoist Chibaudel</t>
+  </si>
+  <si>
+    <t>Hôpital Saint Antoine</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>Bertrand Coiffier</t>
+  </si>
+  <si>
+    <t>Hospices Civils de Lyon</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/betrand_coiffier.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9813b2ea-566b-4c8b-9b69-e2546041f162</t>
+  </si>
+  <si>
+    <t>Bradley Carthon</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Bruce Cheson</t>
+  </si>
+  <si>
+    <t>Georgetown University Hospital 
+Lombardi Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Washington, DC, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Cheson.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a6fcb9ce-9402-4863-9db2-f370388cb660</t>
+  </si>
+  <si>
+    <t>Chiara Cremolini</t>
+  </si>
+  <si>
+    <t>University of Pisa</t>
+  </si>
+  <si>
+    <t>Pisa, Italy</t>
+  </si>
+  <si>
+    <t>Christian Combe</t>
+  </si>
+  <si>
+    <t>University Hospital of Bordeaux</t>
+  </si>
+  <si>
+    <t>Bordeaux, France</t>
+  </si>
+  <si>
+    <t>Robert E. Coleman</t>
+  </si>
+  <si>
+    <t>MD, FRCP, FRCPE</t>
+  </si>
+  <si>
+    <t>Medical Director</t>
+  </si>
+  <si>
+    <t>prIME Oncology</t>
+  </si>
+  <si>
+    <t>Dan Coit</t>
+  </si>
+  <si>
+    <t>New York, New York</t>
+  </si>
+  <si>
+    <t>Daniela Cilloni</t>
+  </si>
+  <si>
+    <t>University of Turin</t>
+  </si>
+  <si>
+    <t>Turin, Italy</t>
+  </si>
+  <si>
+    <t>David Cameron</t>
+  </si>
+  <si>
+    <t>David Cunningham</t>
+  </si>
+  <si>
+    <t>Surrey, United Kingdom</t>
+  </si>
+  <si>
+    <t>David Currow</t>
+  </si>
+  <si>
+    <t>Flinders University</t>
+  </si>
+  <si>
+    <t>Adelaide, South Australia</t>
+  </si>
+  <si>
+    <t>Edward Chu</t>
+  </si>
+  <si>
+    <t>Yale Cancer Center Yale University</t>
+  </si>
+  <si>
+    <t>New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>Eric Van Cutsem</t>
+  </si>
+  <si>
+    <t>University Hospital Gasthuisberg</t>
+  </si>
+  <si>
+    <t>Leuven, Belgium</t>
+  </si>
+  <si>
+    <t>Fatima Cardoso</t>
+  </si>
+  <si>
+    <t>Champalimaud Cancer Center</t>
+  </si>
+  <si>
+    <t>Lisbon, Portugal</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Cardoso.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ce366005-0051-4158-b1ba-4aa4d5fb7b41</t>
+  </si>
+  <si>
+    <t>Fortunato Ciardiello</t>
+  </si>
+  <si>
+    <t>Second University of Naples</t>
+  </si>
+  <si>
+    <t>Naples, Italy</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ciardiello.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=37642774-3019-4d5d-a51b-70d7ceeeb697</t>
+  </si>
+  <si>
+    <t>Francesca Carlomagno</t>
+  </si>
+  <si>
+    <t>University of Naples</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/francesca_carlomagno.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=cfd83d44-13d9-440d-b829-9f4590ea0f99</t>
+  </si>
+  <si>
+    <t>Francisco Cervantes</t>
+  </si>
+  <si>
+    <t>MD,PhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Clinic Barcelona </t>
+  </si>
+  <si>
+    <t>Franco Cavalli</t>
+  </si>
+  <si>
+    <t>Oncology Institute of Southern Switzerland</t>
+  </si>
+  <si>
+    <t>Ballinzona, Switzerland</t>
+  </si>
+  <si>
+    <t>Frederico Cappuzzo</t>
+  </si>
+  <si>
+    <t>Ospedale Civile di Livorno</t>
+  </si>
+  <si>
+    <t>Livorno, Italy</t>
+  </si>
+  <si>
+    <t>Giuseppe Curigliano</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Curigliano.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4a24b599-a190-4391-ac16-11bd7130ef56</t>
+  </si>
+  <si>
+    <t>Gregory Cheng</t>
+  </si>
+  <si>
+    <t>Prince of Wales Hospital</t>
+  </si>
+  <si>
+    <t>Hong Kong, China</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/cheng.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7fdffbf0-3656-4fc1-9140-28855c400d90</t>
+  </si>
+  <si>
+    <t>Hiram Cody, III</t>
+  </si>
+  <si>
+    <t>MD, FACS</t>
+  </si>
+  <si>
+    <t>Ian Chau</t>
+  </si>
+  <si>
+    <t>Sutton, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/ian_chau.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4593727e-e3c4-4b66-a07f-0cac0a3fd5b1</t>
+  </si>
+  <si>
+    <t>Ian Crocker</t>
+  </si>
+  <si>
+    <t>Jaume Capdevila</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Capdevila.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=45795dac-0688-4ce9-92e9-702e2d0ee640</t>
+  </si>
+  <si>
+    <t>Javier Cortés</t>
+  </si>
+  <si>
+    <t>Vall d'Hebron University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/javiercortes.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d7867c3c-34f2-4668-a1cb-a89188d668e3</t>
+  </si>
+  <si>
+    <t>Jeffrey Crawford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durham, North Carolina, United States </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Crawford.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1024bbf7-8c57-426f-a6c6-2ffae902959b</t>
+  </si>
+  <si>
+    <t>Jilly Carter</t>
+  </si>
+  <si>
+    <t>Carter Communications Ltd</t>
+  </si>
+  <si>
+    <t>John Cox</t>
+  </si>
+  <si>
+    <t>DO, FACP</t>
+  </si>
+  <si>
+    <t>Texas Oncology Methodist 
+US Oncology</t>
+  </si>
+  <si>
+    <t>Dallas, Texas</t>
+  </si>
+  <si>
+    <t>John Crown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Vincent's Hospital </t>
+  </si>
+  <si>
+    <t>Dublin, Ireland</t>
+  </si>
+  <si>
+    <t>Jonathon Cohen</t>
+  </si>
+  <si>
+    <t>Jorge Cortes</t>
+  </si>
+  <si>
+    <t>The University of Texas 
+M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/jorgecortes.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9542fb35-4693-4836-9d3c-3bbc371991d2</t>
+  </si>
+  <si>
+    <t>Julide Celebi</t>
+  </si>
+  <si>
+    <t>Columbia University Medical Center</t>
+  </si>
+  <si>
+    <t>Kenneth Cardona</t>
+  </si>
+  <si>
+    <t>Laura Crocetti</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/corocetti.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1b56d349-38b8-4fa9-ab52-ea423b7e9cf0</t>
+  </si>
+  <si>
+    <t>Lisa Carey</t>
+  </si>
+  <si>
+    <t>University of North Carolina</t>
+  </si>
+  <si>
+    <t>Chapel Hill, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>Luca Campana</t>
+  </si>
+  <si>
+    <t>Veneto Institute of Oncology (IOV-IRCCS)</t>
+  </si>
+  <si>
+    <t>Padova, Italy</t>
+  </si>
+  <si>
+    <t>Lucio Crinò</t>
+  </si>
+  <si>
+    <t>Perugia Hospital</t>
+  </si>
+  <si>
+    <t>Perugia, Italy</t>
+  </si>
+  <si>
+    <t>Luis Chow</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Marc Colombel</t>
+  </si>
+  <si>
+    <t>Hospital Edouard Herriot</t>
+  </si>
+  <si>
+    <t>Maria Dolores Caballero</t>
+  </si>
+  <si>
+    <t>University Hospital Salamanca</t>
+  </si>
+  <si>
+    <t>Salamanca, Spain</t>
+  </si>
+  <si>
+    <t>Mary Cianfrocca</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Massimo Colombo</t>
+  </si>
+  <si>
+    <t>University of Milan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milan, Italy </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/colombo%20(1).ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0070a643-c576-4f91-a8cf-1f1fbbb0867e</t>
+  </si>
+  <si>
+    <t>Michael Carducci</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Carducci.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f0ce1aa7-67c6-464a-9732-654a761df6d1</t>
+  </si>
+  <si>
+    <t>Michael Choti</t>
+  </si>
+  <si>
+    <t>MD, MBA, FACS</t>
+  </si>
+  <si>
+    <t>UT Southwestern Medical Center</t>
+  </si>
+  <si>
+    <t>Dallas, Texas, United States</t>
+  </si>
+  <si>
+    <t>Michele Cavo</t>
+  </si>
+  <si>
+    <t>Bologna University School of Medicine</t>
+  </si>
+  <si>
+    <t>Bolonga, Italy</t>
+  </si>
+  <si>
+    <t>Monica Castiglione</t>
+  </si>
+  <si>
+    <t>Myron Czuczman</t>
+  </si>
+  <si>
+    <t>Roswell Park Cancer Institute</t>
+  </si>
+  <si>
+    <t>Buffalo, New York, United States</t>
+  </si>
+  <si>
+    <t>Nicoletta Colombo</t>
+  </si>
+  <si>
+    <t>University of Milan – Bicocca
+and the European Institute of Oncology</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Colombo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7c563cee-d9d8-47f8-9886-9a1f027b4f6a</t>
+  </si>
+  <si>
+    <t>Olivier Chinot</t>
+  </si>
+  <si>
+    <t>University Hospital Timone</t>
+  </si>
+  <si>
+    <t>Paolo Casali</t>
+  </si>
+  <si>
+    <t>Istituto Nazionale Tumori</t>
+  </si>
+  <si>
+    <t>Philipp le Coutre</t>
+  </si>
+  <si>
+    <t>Charité-University Medicine Berlin</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Philipp%20le%20Coutre%20Photo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=445235c2-3b3b-4abf-b8f4-b57ce9139018</t>
+  </si>
+  <si>
+    <t>PierFranco Conte</t>
+  </si>
+  <si>
+    <t>University Hospital of Modena</t>
+  </si>
+  <si>
+    <t>Modena, Italy</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Conte.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f30bfee8-70bf-4774-859d-ca049f4ca5c3</t>
+  </si>
+  <si>
+    <t>Ramon Colomer</t>
+  </si>
+  <si>
+    <t>M. D. Anderson Cancer Center Espana</t>
+  </si>
+  <si>
+    <t>Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Richard Curry</t>
+  </si>
+  <si>
+    <t>University of Cincinnati</t>
+  </si>
+  <si>
+    <t>Cincinnati, Ohio</t>
+  </si>
+  <si>
+    <t>Robert Cavaliere</t>
+  </si>
+  <si>
+    <t>The Ohio State University</t>
+  </si>
+  <si>
+    <t>Columbus, Ohio</t>
+  </si>
+  <si>
+    <t>Robert Chen</t>
+  </si>
+  <si>
+    <t>City of Hope</t>
+  </si>
+  <si>
+    <t>Duarte, California, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/chen.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7cd874d2-0e1b-4e06-8fe6-466693d71225</t>
+  </si>
+  <si>
+    <t>Robert L. Coleman</t>
+  </si>
+  <si>
+    <t>University of Texas 
+M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/coleman-(2).ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8a6dd226-cd6b-4065-b6b7-3613d8df518d</t>
+  </si>
+  <si>
+    <t>Robert Collins</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/RobertColeman.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=56edbf6d-1113-4066-9cff-fd56ebf981f1</t>
+  </si>
+  <si>
+    <t>Sajeel Chowdhary</t>
+  </si>
+  <si>
+    <t>Florida Hospital Cancer Institute</t>
+  </si>
+  <si>
+    <t>Orlando, Florida</t>
+  </si>
+  <si>
+    <t>Seymour Cohen</t>
+  </si>
+  <si>
+    <t>Mount Sinai School of Medicine</t>
+  </si>
+  <si>
+    <t>Simon Chowdhury</t>
+  </si>
+  <si>
+    <t>Guy’s and St Thomas NHS Foundation Trus</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/chowdhury.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4ae08e89-cf34-4e38-b4c4-a19aee561774</t>
+  </si>
+  <si>
+    <t>Stefano Cascinu</t>
+  </si>
+  <si>
+    <t>Università Politecnica delle Marche</t>
+  </si>
+  <si>
+    <t>Ancona, Italy</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/cascinu.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0fcab3d3-7d28-4094-b8bf-129e57af54ad</t>
+  </si>
+  <si>
+    <t>Steven E. Coutre</t>
+  </si>
+  <si>
+    <t>Stanford Cancer Center
+Stanford University School of Medicine</t>
+  </si>
+  <si>
+    <t>Stanford, California, United States</t>
+  </si>
+  <si>
+    <t>Susana Campos</t>
+  </si>
+  <si>
+    <t>MD, MPH</t>
+  </si>
+  <si>
+    <t>Timothy Cloughesy</t>
+  </si>
+  <si>
+    <t>University of California, Los Angeles</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Cloughesy.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e8839bc6-e2ff-45c0-b9b3-dd4f0735ea6a</t>
+  </si>
+  <si>
+    <t>Walter J Curran</t>
+  </si>
+  <si>
+    <t>Jr, MD</t>
+  </si>
+  <si>
+    <t>Wee Joo Chng</t>
+  </si>
+  <si>
+    <t>MB, PhD</t>
+  </si>
+  <si>
+    <t>National University Cancer Institute of Singapore</t>
+  </si>
+  <si>
+    <t>Singapore, Singapore</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,6 +1732,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,14 +1755,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1139,14 +1772,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1450,1753 +2086,3600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F121"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="64" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="64" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="10"/>
+    <row r="43" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="8" t="s">
+      <c r="C78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="2:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="10"/>
+    <row r="120" spans="2:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B144" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B147" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B148" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B149" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B154" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B157" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B160" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B161" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B163" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B164" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B172" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B173" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B176" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B177" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B178" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B180" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B185" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B186" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B188" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B191" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B192" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B193" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B194" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B195" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B197" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C199" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C200" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C201" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C202" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C203" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C204" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C205" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C207" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C208" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3227,6 +5710,13 @@
     <hyperlink ref="F113" r:id="rId24"/>
     <hyperlink ref="F102" r:id="rId25"/>
     <hyperlink ref="F98" r:id="rId26"/>
+    <hyperlink ref="F124" r:id="rId27"/>
+    <hyperlink ref="F127" r:id="rId28"/>
+    <hyperlink ref="F160" r:id="rId29"/>
+    <hyperlink ref="F163" r:id="rId30"/>
+    <hyperlink ref="F172" r:id="rId31"/>
+    <hyperlink ref="F181" r:id="rId32"/>
+    <hyperlink ref="F188" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="656">
   <si>
     <t>Name</t>
   </si>
@@ -1691,6 +1691,317 @@
   </si>
   <si>
     <t>Singapore, Singapore</t>
+  </si>
+  <si>
+    <t>Adil Daud</t>
+  </si>
+  <si>
+    <t>Alex Denes</t>
+  </si>
+  <si>
+    <t>Washington University</t>
+  </si>
+  <si>
+    <t>St. Louis, Missouri</t>
+  </si>
+  <si>
+    <t>Alexis Demopoulos</t>
+  </si>
+  <si>
+    <t>North Shore Long Island Jewish Health System</t>
+  </si>
+  <si>
+    <t>Manhasset, New York</t>
+  </si>
+  <si>
+    <t>Andreas du Bois</t>
+  </si>
+  <si>
+    <t>Klinikum Essen Mitte</t>
+  </si>
+  <si>
+    <t>Essen, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/DuBois.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8240e419-10e7-41d1-be40-b470a8a1929f</t>
+  </si>
+  <si>
+    <t>Angelo Di Leo</t>
+  </si>
+  <si>
+    <t>Istituto Toscano Tumori
+Hospital of Prato</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Di-Leo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9536ef83-eca6-43bf-a606-ac41feb116cf</t>
+  </si>
+  <si>
+    <t>Anne-Marie Dingemans</t>
+  </si>
+  <si>
+    <t>MD, PhD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maastricht University Medical Center </t>
+  </si>
+  <si>
+    <t>Maastricht, the Netherlands</t>
+  </si>
+  <si>
+    <t>Biagio De Angelis</t>
+  </si>
+  <si>
+    <t>Bruno Daniele</t>
+  </si>
+  <si>
+    <t>G. Rummo Hospital</t>
+  </si>
+  <si>
+    <t>Benevento, Italy</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Daniele.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d269d92c-ce37-472e-bddb-8caf8128873a</t>
+  </si>
+  <si>
+    <t>Chaitanya R. Divgi</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Dan Douer</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/DAdamo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8ba40cce-1c76-4a35-af04-08720f246b3d</t>
+  </si>
+  <si>
+    <t>Eduardo Díaz-Rubio</t>
+  </si>
+  <si>
+    <t>Hospital Clinico San Carlos</t>
+  </si>
+  <si>
+    <t>Erin Dunbar</t>
+  </si>
+  <si>
+    <t>Piedmont Healthcare</t>
+  </si>
+  <si>
+    <t>Faith Davies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Marsden Hospital </t>
+  </si>
+  <si>
+    <t>George Demetri</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/demitri.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=3b2c9afd-1b75-4606-a694-588d82061117</t>
+  </si>
+  <si>
+    <t>Gina D’Amato</t>
+  </si>
+  <si>
+    <t>Jan-Erik Damber</t>
+  </si>
+  <si>
+    <t>University of Gothenburg</t>
+  </si>
+  <si>
+    <t>Gothenburg, Sweden</t>
+  </si>
+  <si>
+    <t>Jean-Yves Douillard</t>
+  </si>
+  <si>
+    <t>University of Nantes</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Douillard.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1e0fb1c0-be67-4feb-bbca-270215be5ffb</t>
+  </si>
+  <si>
+    <t>Jean-Claude Davin</t>
+  </si>
+  <si>
+    <t>Emma Children’s Hospital Academic Medical Center</t>
+  </si>
+  <si>
+    <t>Amsterdam, the Netherlands</t>
+  </si>
+  <si>
+    <t>Johann Sebastian de Bono</t>
+  </si>
+  <si>
+    <t>MD, FRCP, MSc, PhD</t>
+  </si>
+  <si>
+    <t>Julio Delgado</t>
+  </si>
+  <si>
+    <t>Hospital de la Santa Creu I Sant Pau</t>
+  </si>
+  <si>
+    <t>Keith Delman</t>
+  </si>
+  <si>
+    <t>Madeleine Duvic</t>
+  </si>
+  <si>
+    <t>The University of Texas
+MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Maike de Wit</t>
+  </si>
+  <si>
+    <t>Vivantes Klinikum Neukölln</t>
+  </si>
+  <si>
+    <t>Maria De Santis</t>
+  </si>
+  <si>
+    <t>Kaiser Franz Josef-Spital</t>
+  </si>
+  <si>
+    <t>Marla Dudak</t>
+  </si>
+  <si>
+    <t>West Boca Medical Center</t>
+  </si>
+  <si>
+    <t>Martin Dreyling</t>
+  </si>
+  <si>
+    <t>University Hospital Grosshadem</t>
+  </si>
+  <si>
+    <t>Munich, Germany</t>
+  </si>
+  <si>
+    <t>Meletios Dimopoulos</t>
+  </si>
+  <si>
+    <t>University of Athens</t>
+  </si>
+  <si>
+    <t>Athens, Greece</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/dimopoulos.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=bc995c47-7569-4f98-a680-67f107ef09f8</t>
+  </si>
+  <si>
+    <t>Michael Deininger</t>
+  </si>
+  <si>
+    <t>University of Utah School of Medicine</t>
+  </si>
+  <si>
+    <t>Salt Lake City, Utah</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/deininger.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ec5eb75d-b4a7-43ac-8121-440983aaff40</t>
+  </si>
+  <si>
+    <t>Michael Dixon</t>
+  </si>
+  <si>
+    <t>Edinburgh Breast Unit Western General Hospital</t>
+  </si>
+  <si>
+    <t>Edinburgh, United Kingdom</t>
+  </si>
+  <si>
+    <t>Michel Delforge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital Leuven </t>
+  </si>
+  <si>
+    <t>Michel Ducreux</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/ducreux.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e12173a4-b2b3-428f-b8e6-3a375f54574f</t>
+  </si>
+  <si>
+    <t>Pascale Dielenseger</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villejuif, France </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Dielenseger.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=72d9e009-0303-4940-acda-8c16b27e8000</t>
+  </si>
+  <si>
+    <t>Paul De Leyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD, PhD </t>
+  </si>
+  <si>
+    <t>Paul Declerck</t>
+  </si>
+  <si>
+    <t>PharmD, PhD</t>
+  </si>
+  <si>
+    <t>KU Leuven</t>
+  </si>
+  <si>
+    <t>Peter Dubsky</t>
+  </si>
+  <si>
+    <t>Rafael Duarte</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Reinhard Dummer</t>
+  </si>
+  <si>
+    <t>University of Zurich Hospital</t>
+  </si>
+  <si>
+    <t>Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>Robert Dreicer</t>
+  </si>
+  <si>
+    <t>MD, FACP, FASCO</t>
+  </si>
+  <si>
+    <t>Cleveland, Ohio, United States</t>
+  </si>
+  <si>
+    <t>Romano Danesi</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/romano_danesi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c3e4c3a7-b414-4f32-97cf-41dab05a2dd9</t>
+  </si>
+  <si>
+    <t>Shaker Dakhil</t>
+  </si>
+  <si>
+    <t>Cancer Center of Kansas</t>
+  </si>
+  <si>
+    <t>Wichita, Kansas</t>
+  </si>
+  <si>
+    <t>Thomas D'Amico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duke University Medical Center </t>
+  </si>
+  <si>
+    <t>Durham, North Carolina</t>
+  </si>
+  <si>
+    <t>Veronique Dieras</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1779,10 +2090,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2088,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,7 +2407,7 @@
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="64" style="2" customWidth="1"/>
+    <col min="6" max="6" width="76.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4683,7 +4991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>501</v>
       </c>
@@ -4852,7 +5160,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>532</v>
       </c>
@@ -4869,7 +5177,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>535</v>
       </c>
@@ -4964,295 +5272,691 @@
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
-      <c r="E198" s="9"/>
+      <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B199" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C199" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C200" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B201" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="C201" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="C202" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="C203" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="C204" s="2" t="s">
-        <v>19</v>
+        <v>568</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="C205" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="C206" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="C207" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D207" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>578</v>
+      </c>
       <c r="C208" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
+        <v>580</v>
+      </c>
       <c r="C209" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
+        <v>582</v>
+      </c>
       <c r="C210" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="C211" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="C212" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>588</v>
+      </c>
       <c r="C213" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="C214" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="C215" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="C216" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>598</v>
+      </c>
       <c r="C217" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>600</v>
+      </c>
       <c r="C218" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="C219" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B220" s="2" t="s">
+        <v>603</v>
+      </c>
       <c r="C220" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="C221" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="C222" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>609</v>
+      </c>
       <c r="C223" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
+        <v>611</v>
+      </c>
       <c r="C224" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="C225" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="C226" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="C227" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="C228" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="C229" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="2" t="s">
+        <v>629</v>
+      </c>
       <c r="C230" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="C231" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
+        <v>635</v>
+      </c>
       <c r="C232" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="C233" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
+        <v>639</v>
+      </c>
       <c r="C234" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E234" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
+        <v>641</v>
+      </c>
       <c r="C235" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="C236" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="C237" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="C238" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>652</v>
+      </c>
       <c r="C239" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
+        <v>655</v>
+      </c>
       <c r="C240" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C242" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C243" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C244" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C245" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C246" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C247" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C248" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C249" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C250" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C251" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C252" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C253" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C254" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C255" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
         <v>19</v>
       </c>
@@ -5683,6 +6387,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A241:F241"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2"/>
@@ -5717,6 +6425,7 @@
     <hyperlink ref="F172" r:id="rId31"/>
     <hyperlink ref="F181" r:id="rId32"/>
     <hyperlink ref="F188" r:id="rId33"/>
+    <hyperlink ref="F203" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="702">
   <si>
     <t>Name</t>
   </si>
@@ -2002,6 +2002,144 @@
   </si>
   <si>
     <t>Veronique Dieras</t>
+  </si>
+  <si>
+    <t>Alexander M. M. Eggermont</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Eggermont.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ef38b1e9-707c-4961-9364-c45840eeb591</t>
+  </si>
+  <si>
+    <t>Alexander Egle</t>
+  </si>
+  <si>
+    <t>University Hospital Salzburg</t>
+  </si>
+  <si>
+    <t>Salzburg, Austria</t>
+  </si>
+  <si>
+    <t>Andreas Engert</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Engert.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1d3817ca-fedd-43fa-9a71-3bcb8adacb1d</t>
+  </si>
+  <si>
+    <t>Andrew Evens</t>
+  </si>
+  <si>
+    <t>DO, MSc</t>
+  </si>
+  <si>
+    <t>University of Massachusetts Medical School</t>
+  </si>
+  <si>
+    <t>Worcester, Massachusetts, United States</t>
+  </si>
+  <si>
+    <t>Bassel El-Rayes</t>
+  </si>
+  <si>
+    <t>Bernard Escudier</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Eng.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=33baab5e-6077-4fc8-9db7-2c99c9270980</t>
+  </si>
+  <si>
+    <t>Eleni Efstathiou</t>
+  </si>
+  <si>
+    <t>The University of Texas, MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Francisco Esteva</t>
+  </si>
+  <si>
+    <t>MD, PhD, FACP</t>
+  </si>
+  <si>
+    <t>New York University Langone Medical Center</t>
+  </si>
+  <si>
+    <t>Gerhard Ehninger</t>
+  </si>
+  <si>
+    <t>Carl Gustav Carus University Clinic</t>
+  </si>
+  <si>
+    <t>Dresden, Germany</t>
+  </si>
+  <si>
+    <t>Laura G. Estévez</t>
+  </si>
+  <si>
+    <t>Mary English</t>
+  </si>
+  <si>
+    <t>MS, PNP, CPON</t>
+  </si>
+  <si>
+    <t>Hyundai Cancer Institute at CHOC Children's</t>
+  </si>
+  <si>
+    <t>Orange, California</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/english_mary.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4442a42e-4a72-42d0-ba1c-3fda30dfae3d</t>
+  </si>
+  <si>
+    <t>Matthew Ellis</t>
+  </si>
+  <si>
+    <t>MD, PhD, FRCP</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/ellis.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2e4edecd-51e0-4591-a06d-1a8eb0adf96e</t>
+  </si>
+  <si>
+    <t>Michael Ewer</t>
+  </si>
+  <si>
+    <t>MD, MPH, JD</t>
+  </si>
+  <si>
+    <t>MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Mohsen Saleh Elalfy</t>
+  </si>
+  <si>
+    <t>Ain Shams University</t>
+  </si>
+  <si>
+    <t>Cairo, Egypt</t>
+  </si>
+  <si>
+    <t>Peter Enzinger</t>
+  </si>
+  <si>
+    <t>Rossella Elisei</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Elisei.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=37f5ed0f-ab8d-4aee-98a7-d6e13094964f</t>
+  </si>
+  <si>
+    <t>Stephen Edge</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Edge.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a8a2c1b6-947f-4408-8574-a1a86f0640cb</t>
+  </si>
+  <si>
+    <t>Wilfried Eberhardt</t>
+  </si>
+  <si>
+    <t>University of Essen Medical School</t>
+  </si>
+  <si>
+    <t>University of Essen Medical School, Essen, Germany</t>
+  </si>
+  <si>
+    <t>Alfredo Falcone</t>
   </si>
 </sst>
 </file>
@@ -2396,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2544,7 @@
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="76.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2698,7 +2836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
@@ -2715,7 +2853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
@@ -3331,7 +3469,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>192</v>
       </c>
@@ -3524,7 +3662,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>224</v>
       </c>
@@ -3597,7 +3735,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>237</v>
       </c>
@@ -3631,7 +3769,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>244</v>
       </c>
@@ -3662,7 +3800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>250</v>
       </c>
@@ -3724,7 +3862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>262</v>
       </c>
@@ -3856,7 +3994,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>292</v>
       </c>
@@ -4244,7 +4382,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>364</v>
       </c>
@@ -4443,7 +4581,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>404</v>
       </c>
@@ -4460,7 +4598,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>408</v>
       </c>
@@ -4519,7 +4657,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>420</v>
       </c>
@@ -4598,7 +4736,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>432</v>
       </c>
@@ -4615,7 +4753,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>434</v>
       </c>
@@ -4705,7 +4843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>450</v>
       </c>
@@ -4767,7 +4905,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>458</v>
       </c>
@@ -4862,7 +5000,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>477</v>
       </c>
@@ -4991,7 +5129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>501</v>
       </c>
@@ -5067,7 +5205,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>518</v>
       </c>
@@ -5084,7 +5222,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>522</v>
       </c>
@@ -5115,7 +5253,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>379</v>
       </c>
@@ -5160,7 +5298,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>532</v>
       </c>
@@ -5208,7 +5346,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>542</v>
       </c>
@@ -5317,7 +5455,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>560</v>
       </c>
@@ -5379,7 +5517,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>572</v>
       </c>
@@ -5396,7 +5534,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>576</v>
       </c>
@@ -5410,7 +5548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>578</v>
       </c>
@@ -5455,7 +5593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>584</v>
       </c>
@@ -5514,7 +5652,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>592</v>
       </c>
@@ -5657,7 +5795,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="225" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>614</v>
       </c>
@@ -5674,7 +5812,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>618</v>
       </c>
@@ -5719,7 +5857,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>627</v>
       </c>
@@ -5736,7 +5874,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>629</v>
       </c>
@@ -5775,7 +5913,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>638</v>
       </c>
@@ -5825,7 +5963,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>647</v>
       </c>
@@ -5886,157 +6024,347 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>656</v>
+      </c>
       <c r="C242" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="C243" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D243" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="C244" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D244" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="C245" s="2" t="s">
-        <v>19</v>
+        <v>664</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="C246" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D246" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>668</v>
+      </c>
       <c r="C247" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D247" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="C248" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>670</v>
+      </c>
       <c r="C249" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="C250" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>675</v>
+      </c>
       <c r="C251" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D251" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>678</v>
+      </c>
       <c r="C252" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E252" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>679</v>
+      </c>
       <c r="C253" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>684</v>
+      </c>
       <c r="C254" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="C255" s="2" t="s">
-        <v>19</v>
+        <v>688</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="C256" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>693</v>
+      </c>
       <c r="C257" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>694</v>
+      </c>
       <c r="C258" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>696</v>
+      </c>
       <c r="C259" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>698</v>
+      </c>
       <c r="C260" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="8"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>701</v>
+      </c>
       <c r="C263" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C264" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C265" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C266" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C267" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C268" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C269" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C270" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C271" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C272" s="2" t="s">
         <v>19</v>
       </c>
@@ -6387,9 +6715,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A198:F198"/>
     <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A261:F261"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -6426,6 +6755,7 @@
     <hyperlink ref="F181" r:id="rId32"/>
     <hyperlink ref="F188" r:id="rId33"/>
     <hyperlink ref="F203" r:id="rId34"/>
+    <hyperlink ref="F253" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="12465"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1138">
   <si>
     <t>Name</t>
   </si>
@@ -2140,6 +2140,1331 @@
   </si>
   <si>
     <t>Alfredo Falcone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pisa, Italy </t>
+  </si>
+  <si>
+    <t>Bruno Flamion</t>
+  </si>
+  <si>
+    <t>University of Namur</t>
+  </si>
+  <si>
+    <t>Namur, Belgium</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/bruno_flamion.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1b4d67f0-2ed6-4325-abf1-893da27a87b3</t>
+  </si>
+  <si>
+    <t>Charlotte Fribbens</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/flowers_chris.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=14e3f755-34ad-4ad6-8efb-571480626159</t>
+  </si>
+  <si>
+    <t>Christopher Flowers</t>
+  </si>
+  <si>
+    <t>MD, MS</t>
+  </si>
+  <si>
+    <t>Winship Cancer Institute
+Emory University</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia, United States</t>
+  </si>
+  <si>
+    <t>Dagmar Führer</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Essen</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/fuhrer.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c5188a83-d31c-42ab-9df3-395a3457e913</t>
+  </si>
+  <si>
+    <t>David Ferry</t>
+  </si>
+  <si>
+    <t>New Cross Hospital</t>
+  </si>
+  <si>
+    <t>Wolverhampton, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/david_ferry.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=18aabdaf-c002-475f-967a-d909dbfb7ca1</t>
+  </si>
+  <si>
+    <t>Eitan Friedman</t>
+  </si>
+  <si>
+    <t>Enriqueta Felip</t>
+  </si>
+  <si>
+    <t>Vall d’Hebron University</t>
+  </si>
+  <si>
+    <t>Eric J Feldman</t>
+  </si>
+  <si>
+    <t>Weill Cornell Medical College</t>
+  </si>
+  <si>
+    <t>Fotios Loupakis</t>
+  </si>
+  <si>
+    <t>George Fisher</t>
+  </si>
+  <si>
+    <t>Stanford, California</t>
+  </si>
+  <si>
+    <t>Guido Finazzi</t>
+  </si>
+  <si>
+    <t>Ospedali Riuniti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergamo, Italy </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/finazzi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=229b3bd8-0154-4de6-8fbf-8056cb31d571</t>
+  </si>
+  <si>
+    <t>Harold P. Freeman</t>
+  </si>
+  <si>
+    <t>Harold P. Freeman Patient Navigation Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, New York, United States </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/freeman.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=bb6a0a9a-c0cd-4abf-b3f9-384365250f80</t>
+  </si>
+  <si>
+    <t>Ian W. Flinn</t>
+  </si>
+  <si>
+    <t>John Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Jonathan Friedberg</t>
+  </si>
+  <si>
+    <t>MD, MMSc</t>
+  </si>
+  <si>
+    <t>University of Rochester, James P Wilmont Cancer Center</t>
+  </si>
+  <si>
+    <t>Rochester, New York, United States</t>
+  </si>
+  <si>
+    <t>Joseph W. Fay</t>
+  </si>
+  <si>
+    <t>Baylor Institute for Immunology Research</t>
+  </si>
+  <si>
+    <t>Karen Fink</t>
+  </si>
+  <si>
+    <t>Neuro-Oncology Associates</t>
+  </si>
+  <si>
+    <t>Karim Fizazi</t>
+  </si>
+  <si>
+    <t>Institut Gustave Roussy
+University of Paris Sud</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Fizazi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=330f9c3b-0a66-4544-9119-9232e42a4ffc</t>
+  </si>
+  <si>
+    <t>Keith Flaherty</t>
+  </si>
+  <si>
+    <t>Dana-Farber Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Flaherty.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a6bc508d-ba36-4967-bf67-f6c1ee4e1e6a</t>
+  </si>
+  <si>
+    <t>Kenneth Fearon</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Fearon.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=42f7f1ca-8e66-48c1-8111-7cef8fe866b1</t>
+  </si>
+  <si>
+    <t>Lesley Fallowfield</t>
+  </si>
+  <si>
+    <t>DPhil, BSc</t>
+  </si>
+  <si>
+    <t>University of Sussex</t>
+  </si>
+  <si>
+    <t>Falmer, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Fallowfield.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=89f951e5-6b15-4474-a640-00ba972f904a</t>
+  </si>
+  <si>
+    <t>Lynn Feun</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>Miami, Florida</t>
+  </si>
+  <si>
+    <t>Michael Farmer</t>
+  </si>
+  <si>
+    <t>Michael Friedlander</t>
+  </si>
+  <si>
+    <t>University of New South Wales 
+Prince of Wales Cancer Centre</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>Nathan H. Fowler</t>
+  </si>
+  <si>
+    <t>Pierre Fenaux</t>
+  </si>
+  <si>
+    <t>Hospital Avicenne
+University of Paris</t>
+  </si>
+  <si>
+    <t>Bobigny, France</t>
+  </si>
+  <si>
+    <t>Richard Fine</t>
+  </si>
+  <si>
+    <t>Richard R. Furman</t>
+  </si>
+  <si>
+    <t>Weill Cornell Medical Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/furman.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=577af15e-0bf6-41f2-8e96-ef9130002153</t>
+  </si>
+  <si>
+    <t>Richard S. Finn</t>
+  </si>
+  <si>
+    <t>David Geffen School of Medicine
+University of California, Los Angeles</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/finn.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0beeda9c-127f-4000-9834-42ec3a793e61</t>
+  </si>
+  <si>
+    <t>Robert A. Figlin</t>
+  </si>
+  <si>
+    <t>City of Hope National Medical Center</t>
+  </si>
+  <si>
+    <t>Duarte, California</t>
+  </si>
+  <si>
+    <t>Robert Lance Fine</t>
+  </si>
+  <si>
+    <t>Thierry Facon</t>
+  </si>
+  <si>
+    <t>Lille University Hospital</t>
+  </si>
+  <si>
+    <t>Aimery de Gramont</t>
+  </si>
+  <si>
+    <t>Hôpital Saint-Antoine</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Gramont.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2a698fe2-4dc9-46ec-98c0-bf30aa346b4a</t>
+  </si>
+  <si>
+    <t>Alessandra Gennari</t>
+  </si>
+  <si>
+    <t>Galliera Hospital</t>
+  </si>
+  <si>
+    <t>Genoa, Italy</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/gennari.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8dee199d-3562-45d2-98f0-97ea5ec181ea</t>
+  </si>
+  <si>
+    <t>Ana Maria Gonzalez-Angulo</t>
+  </si>
+  <si>
+    <t>MD, MSc, FACP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houston, Texas, United States </t>
+  </si>
+  <si>
+    <t>Andre Goy</t>
+  </si>
+  <si>
+    <t>John Theurer Cancer Center</t>
+  </si>
+  <si>
+    <t>Hackensack, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>Andreas Günther</t>
+  </si>
+  <si>
+    <t>University of Kiel</t>
+  </si>
+  <si>
+    <t>Kiel, Germany</t>
+  </si>
+  <si>
+    <t>Ari Giagounidis</t>
+  </si>
+  <si>
+    <t>St Mary’s Hospital</t>
+  </si>
+  <si>
+    <t>Duesseldorf, Germany</t>
+  </si>
+  <si>
+    <t>Aristoteles Giagounidis</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/giagounidis.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1219f993-45b3-4848-8842-a53217063f1b</t>
+  </si>
+  <si>
+    <t>Axel Grothey</t>
+  </si>
+  <si>
+    <t>Mayo Clinic</t>
+  </si>
+  <si>
+    <t>Rochester, Minnesota, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Grothey.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b924488a-775e-434f-a286-95adc0ab647c</t>
+  </si>
+  <si>
+    <t>Bruce Giantonio</t>
+  </si>
+  <si>
+    <t>Carlo Gambacorti-Passerini</t>
+  </si>
+  <si>
+    <t>San Gerardo Hospital  University of Milano Bicocca</t>
+  </si>
+  <si>
+    <t>Monza, Italy</t>
+  </si>
+  <si>
+    <t>Christian Gisselbrecht</t>
+  </si>
+  <si>
+    <t>Hôpital Saint-Louis</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/gisselbrecht.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=70c80a01-1cba-406c-8a79-7b4e38f85da1</t>
+  </si>
+  <si>
+    <t>Daniel George</t>
+  </si>
+  <si>
+    <t>Edward Garon</t>
+  </si>
+  <si>
+    <t>UCLA Medical Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/garon.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f0a9f730-8ff2-42c1-9d61-67d411d099a9</t>
+  </si>
+  <si>
+    <t>Evanthia Galanis</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Evanthia-Galanis-11209496.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=10eedf58-b549-413e-a69c-ab51e38b5089</t>
+  </si>
+  <si>
+    <t>Francesca Gay</t>
+  </si>
+  <si>
+    <t>Francesco Grossi</t>
+  </si>
+  <si>
+    <t>National Institute for Cancer Research</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/grossi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=973ac729-bc89-4b58-aeff-243bdb8f14b2</t>
+  </si>
+  <si>
+    <t>Francis J. Giles</t>
+  </si>
+  <si>
+    <t>University of Texas</t>
+  </si>
+  <si>
+    <t>San Antonio, Texas, United States</t>
+  </si>
+  <si>
+    <t>Frank Griesinger</t>
+  </si>
+  <si>
+    <t>Pius-Hospital Oldenburg</t>
+  </si>
+  <si>
+    <t>Oldenburg, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/griesinger.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a62c68e6-1a80-4321-8ccf-ebb4a2b0df0f</t>
+  </si>
+  <si>
+    <t>Geoffrey Gibney</t>
+  </si>
+  <si>
+    <t>H. Lee Moffitt Cancer Center</t>
+  </si>
+  <si>
+    <t>Tampa, Florida</t>
+  </si>
+  <si>
+    <t>Gösta Gahrton</t>
+  </si>
+  <si>
+    <t>Karolinska Institute</t>
+  </si>
+  <si>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Guillermo Garcia-Manero</t>
+  </si>
+  <si>
+    <t>Heinz Gisslinger</t>
+  </si>
+  <si>
+    <t>Helen Gogas</t>
+  </si>
+  <si>
+    <t>Irene Ghobrial</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/ghobrial.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7eff7c6e-9bef-41c7-8134-fd0bcc219ac6</t>
+  </si>
+  <si>
+    <t>Jack Goldberg</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania
+Abramson Cancer Center</t>
+  </si>
+  <si>
+    <t>Janice Galleshaw</t>
+  </si>
+  <si>
+    <t>Senior Medical Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prIME Oncology </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Galleshaw.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=17fc47e2-12de-4fd7-8a2b-b6c62c1f5dc3</t>
+  </si>
+  <si>
+    <t>Jason Gotlib</t>
+  </si>
+  <si>
+    <t>Stanford Cancer Institute</t>
+  </si>
+  <si>
+    <t>John Goldman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial College School of Medicine </t>
+  </si>
+  <si>
+    <t>John Gribben</t>
+  </si>
+  <si>
+    <t>MD, DSc, FRCP, FRCPath, FMedSci</t>
+  </si>
+  <si>
+    <t>Barts Cancer Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/gribben.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4f55b1f6-1b42-412f-b2b6-953e8eb9a1f0</t>
+  </si>
+  <si>
+    <t>Jorge Gomez</t>
+  </si>
+  <si>
+    <t>Sylvester Comprehensive Cancer Center
+University of Miami</t>
+  </si>
+  <si>
+    <t>Joseph Gligorov</t>
+  </si>
+  <si>
+    <t>Medical Oncology Dept, CancerEst 
+Eastern Paris University Hospital - Tenon</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Gligorov.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5ad0c547-1984-4b2a-a8cf-42993dd7a6eb</t>
+  </si>
+  <si>
+    <t>Judy Garber</t>
+  </si>
+  <si>
+    <t>Julie Garlow</t>
+  </si>
+  <si>
+    <t>Tenon Hospital</t>
+  </si>
+  <si>
+    <t>Kenneth Grossmann</t>
+  </si>
+  <si>
+    <t>University of Utah Hospital and Clinics</t>
+  </si>
+  <si>
+    <t>Kristen Ganjoo</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Laurence Greenbaum</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>Lori Goldstein</t>
+  </si>
+  <si>
+    <t>Fox Chase Cancer Center</t>
+  </si>
+  <si>
+    <t>Philadelphia, Pennsylvania, USA</t>
+  </si>
+  <si>
+    <t>Luca Gianni</t>
+  </si>
+  <si>
+    <t>San Raffaele Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/luca_gianni.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=209838ac-1c8f-4ec4-bfd2-72cc51e1bef6</t>
+  </si>
+  <si>
+    <t>Martin Gore</t>
+  </si>
+  <si>
+    <t>Michael Gnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vienna, Austria </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/gnant.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2caaf203-1cac-4c71-8121-27eab926be62</t>
+  </si>
+  <si>
+    <t>Michele Ghielmini</t>
+  </si>
+  <si>
+    <t>Oncology Institute of Southern Switzerland
+University of Bern</t>
+  </si>
+  <si>
+    <t>Bellinzona, Switzerland</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ghielmini.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=88620568-f726-4dca-a3b2-84effe9969a2</t>
+  </si>
+  <si>
+    <t>Mordechai Gutman</t>
+  </si>
+  <si>
+    <t>Norbert Gattermann</t>
+  </si>
+  <si>
+    <t>University of Düsseldorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Düsseldorf, Germany </t>
+  </si>
+  <si>
+    <t>Paola Guglielmelli</t>
+  </si>
+  <si>
+    <t>University of Florence</t>
+  </si>
+  <si>
+    <t>Florence, Italy</t>
+  </si>
+  <si>
+    <t>Ramaswamy Govindan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington University School of Medicine </t>
+  </si>
+  <si>
+    <t>Rene Gonzalez</t>
+  </si>
+  <si>
+    <t>University of Colorado</t>
+  </si>
+  <si>
+    <t>Richard Goldberg</t>
+  </si>
+  <si>
+    <t>Ohio State Comprehensive Cancer Center
+James Cancer Hospital</t>
+  </si>
+  <si>
+    <t>Columbus, Ohio, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/goldberg.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c66fa05a-1d5d-4bff-8605-36d96a3f1183</t>
+  </si>
+  <si>
+    <t>Richard Gralla</t>
+  </si>
+  <si>
+    <t>Albert Einstein College of Medicine</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/gralla.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f94214fc-85fe-4157-b36d-b278376011c0</t>
+  </si>
+  <si>
+    <t>Sharlene Gill</t>
+  </si>
+  <si>
+    <t>MD, MPH, FACP, FRCP</t>
+  </si>
+  <si>
+    <t>BC Cancer Agency</t>
+  </si>
+  <si>
+    <t>Vancouver, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/gill.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8ad285cc-3fba-43fa-948e-35b2b879e6a6</t>
+  </si>
+  <si>
+    <t>Stefan Gluck</t>
+  </si>
+  <si>
+    <t>Stefano Greggi</t>
+  </si>
+  <si>
+    <t>Istituto Nazionale Tumori di Napoli</t>
+  </si>
+  <si>
+    <t>Thomas Gardner</t>
+  </si>
+  <si>
+    <t>Indiana University School of Medicine</t>
+  </si>
+  <si>
+    <t>Department of Urology Indianapolis Indiana</t>
+  </si>
+  <si>
+    <t>Thomas Gruenberger</t>
+  </si>
+  <si>
+    <t>Rudolf Foundation Hospital</t>
+  </si>
+  <si>
+    <t>Ulrich Gatzemeier</t>
+  </si>
+  <si>
+    <t>Vikas Gupta</t>
+  </si>
+  <si>
+    <t>Princess Margaret Cancer Center</t>
+  </si>
+  <si>
+    <t>W Jarrard Goodwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Miami </t>
+  </si>
+  <si>
+    <t>Deerfield Beach, Florida</t>
+  </si>
+  <si>
+    <t>William Gradishar</t>
+  </si>
+  <si>
+    <t>Northwestern University
+Robert H. Lurie Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Gradishar.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=208edda1-c83b-4511-b1c9-0e9d45aeb4f5</t>
+  </si>
+  <si>
+    <t>Andreas Hochhaus</t>
+  </si>
+  <si>
+    <t>Medizinische Fakultaet Mannheim, Heidelberg University</t>
+  </si>
+  <si>
+    <t>Mannheim, Germany</t>
+  </si>
+  <si>
+    <t>Axel Hauschild</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hauschild.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=10311a19-7a0b-4301-9c0b-7f764296c30e</t>
+  </si>
+  <si>
+    <t>Axel Heidenreich</t>
+  </si>
+  <si>
+    <t>University Hospital Aachen</t>
+  </si>
+  <si>
+    <t>Aachen, Germany</t>
+  </si>
+  <si>
+    <t>Celestia S. Higano</t>
+  </si>
+  <si>
+    <t>University of Washington
+Fred Hutchinson Cancer Research Center</t>
+  </si>
+  <si>
+    <t>Seattle, Washington, United States</t>
+  </si>
+  <si>
+    <t>Christine Haie-Meder</t>
+  </si>
+  <si>
+    <t>Claire N. Harrison</t>
+  </si>
+  <si>
+    <t>DM, FRCP, FRCPath</t>
+  </si>
+  <si>
+    <t>Guy's and St Thomas' National Health Service Foundation Trust</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/harrison.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ed226f7f-7d9b-4fb7-82bc-d404d20b6172</t>
+  </si>
+  <si>
+    <t>Cliff Hudis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco, California, USA </t>
+  </si>
+  <si>
+    <t>Clifford Hudis</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Hudis.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e45478ca-2e8d-44cc-a80d-41dcb18d357c</t>
+  </si>
+  <si>
+    <t>Costas Hadjipanayis</t>
+  </si>
+  <si>
+    <t>Daniel G. Haller</t>
+  </si>
+  <si>
+    <t>MD, FACP, FRCP, FASCO</t>
+  </si>
+  <si>
+    <t>Abramson Cancer Center
+University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Haller%20photo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=845c291d-63f7-46b5-928f-88db05547cb9</t>
+  </si>
+  <si>
+    <t>David Hong</t>
+  </si>
+  <si>
+    <t>Elisabeth Heath</t>
+  </si>
+  <si>
+    <t>Wayne State University School of Medicine
+Karmanos Cancer Institute</t>
+  </si>
+  <si>
+    <t>Detroit, Michigan, United States</t>
+  </si>
+  <si>
+    <t>Fredrick Hagemeister</t>
+  </si>
+  <si>
+    <t>Gabriel Hortobagyi</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg University Mainz</t>
+  </si>
+  <si>
+    <t>Mainz, Germany</t>
+  </si>
+  <si>
+    <t>George Hess</t>
+  </si>
+  <si>
+    <t>Gregory Heestand</t>
+  </si>
+  <si>
+    <t>University of California San Diego
+Moores Cancer Center</t>
+  </si>
+  <si>
+    <t>La Jolla, California, United States</t>
+  </si>
+  <si>
+    <t>H. Jean Khoury</t>
+  </si>
+  <si>
+    <t>Emory University School of Medicine</t>
+  </si>
+  <si>
+    <t>Herbert I. Hurwitz</t>
+  </si>
+  <si>
+    <t>Duke Cancer Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hurwitz.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=68921246-36ba-4bda-91de-f24a6300b153</t>
+  </si>
+  <si>
+    <t>Ira Horowitz</t>
+  </si>
+  <si>
+    <t>MD, SM, FACOG, FACS</t>
+  </si>
+  <si>
+    <t>Iris Helfrich</t>
+  </si>
+  <si>
+    <t>University Clinic Essen</t>
+  </si>
+  <si>
+    <t>Jean-Luc Harousseau</t>
+  </si>
+  <si>
+    <t>Department of Hematology, University Hospital Nantes</t>
+  </si>
+  <si>
+    <t>Jimmie Harvey</t>
+  </si>
+  <si>
+    <t>Birmingham Hematology and Oncology Associates</t>
+  </si>
+  <si>
+    <t>Birmingham, Alabama</t>
+  </si>
+  <si>
+    <t>John B. A. G. Haanen</t>
+  </si>
+  <si>
+    <t>The Netherlands Cancer Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Haanen.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b08ffa81-396c-4ca2-a849-54d42d329717</t>
+  </si>
+  <si>
+    <t>John Henson</t>
+  </si>
+  <si>
+    <t>MD, FAAN</t>
+  </si>
+  <si>
+    <t>Swedish Medical Center</t>
+  </si>
+  <si>
+    <t>Leonard T. Heffner, Jr.</t>
+  </si>
+  <si>
+    <t>Maha Hussain</t>
+  </si>
+  <si>
+    <t>Ann Arbor, Michigan, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Hussain.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=80b865f7-a59f-41d4-914f-53cb6f626b53</t>
+  </si>
+  <si>
+    <t>Manuel Hidalgo</t>
+  </si>
+  <si>
+    <t>Universidad CEU San Pablo</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hidalgo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=547b9af5-5c47-4c24-8eec-a3fdb06bf7be</t>
+  </si>
+  <si>
+    <t>Michael Hallek</t>
+  </si>
+  <si>
+    <t>Mingfeng Ho</t>
+  </si>
+  <si>
+    <t>Moderator: Volker Heinemann</t>
+  </si>
+  <si>
+    <t>University of Munich</t>
+  </si>
+  <si>
+    <t>Nadia Harbeck</t>
+  </si>
+  <si>
+    <t>University of Munich (LMU)</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/harbeck.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2e25bd96-64fd-4e2c-a9cb-1220fa83530e</t>
+  </si>
+  <si>
+    <t>Nasser Hanna</t>
+  </si>
+  <si>
+    <t>Indiana University</t>
+  </si>
+  <si>
+    <t>Indianapolis, Indiana, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hanna.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c0684c1e-2856-496a-9ac9-389fd22245e8</t>
+  </si>
+  <si>
+    <t>Omid Hamid</t>
+  </si>
+  <si>
+    <t>The Angeles Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles, California, United States </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hamid.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8a67a331-b1c3-444b-a738-90b169f50d0e</t>
+  </si>
+  <si>
+    <t>Peter Harper</t>
+  </si>
+  <si>
+    <t>Guy's and St Thomas' Hospital</t>
+  </si>
+  <si>
+    <t>Peter Hillmen</t>
+  </si>
+  <si>
+    <t>MBChB, PhD</t>
+  </si>
+  <si>
+    <t>Saint James University Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds, United Kingdom </t>
+  </si>
+  <si>
+    <t>Philipp Harter</t>
+  </si>
+  <si>
+    <t>Pierre Hupperets</t>
+  </si>
+  <si>
+    <t>Ralf Hofheinz</t>
+  </si>
+  <si>
+    <t>Mannheim University Hospital
+Heidelberg University</t>
+  </si>
+  <si>
+    <t>Randy Hecht</t>
+  </si>
+  <si>
+    <t>Roman Hájek</t>
+  </si>
+  <si>
+    <t>Masaryk University</t>
+  </si>
+  <si>
+    <t>Brno, Czech Republic</t>
+  </si>
+  <si>
+    <t>Sara Hurvitz</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hurvitz.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c94491b1-a5a4-431a-a212-2267d24a7514</t>
+  </si>
+  <si>
+    <t>Stephen Hunger</t>
+  </si>
+  <si>
+    <t>University of Colorado Denver</t>
+  </si>
+  <si>
+    <t>Denver, Colorado, United States</t>
+  </si>
+  <si>
+    <t>Thomas E. Hutson</t>
+  </si>
+  <si>
+    <t>DO, PharmD</t>
+  </si>
+  <si>
+    <t>Charles A. Sammons Cancer Center,
+Baylor University Medical Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hutson.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f40cc70e-87e5-47f2-a198-ab08ad73ae66</t>
+  </si>
+  <si>
+    <t>Thomas Herzog</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/herzog.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0190ba48-7c22-4a88-ad6c-09f7d92f1df7</t>
+  </si>
+  <si>
+    <t>Timothy Hughes</t>
+  </si>
+  <si>
+    <t>Royal Adelaide Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hughes.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=6d693ec2-f638-4c79-9930-5057e3959008</t>
+  </si>
+  <si>
+    <t>Volker Heinemann</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/heinemann_volker.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b4a05680-799f-4fa0-a613-909e556b4709</t>
+  </si>
+  <si>
+    <t>Wolf K Hofmann</t>
+  </si>
+  <si>
+    <t>Yujin Hoshida</t>
+  </si>
+  <si>
+    <t>Broad Institute Massachusetts Institute of Technology and Harvard University</t>
+  </si>
+  <si>
+    <t>Cambridge, Massachusetts, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hoshida.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=fd0268e8-915e-4bd9-94d2-809dd6bfe8d7</t>
+  </si>
+  <si>
+    <t>Yutaka Hattori</t>
+  </si>
+  <si>
+    <t>Keio University School of Medicine</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>David Ilson</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ilson_090123_05.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d222895b-834f-41b4-8466-934b299d0a58</t>
+  </si>
+  <si>
+    <t>Timothy Illidge</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Illidge.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ed2983e9-8db9-42ee-aacd-8525eab466b9</t>
+  </si>
+  <si>
+    <t>Alison Jones</t>
+  </si>
+  <si>
+    <t>Aminah Jatoi</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Jatoi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7271154e-612b-4548-930c-825079ae0d39</t>
+  </si>
+  <si>
+    <t>Anand Jillella</t>
+  </si>
+  <si>
+    <t>Andrzej Jakubowiak</t>
+  </si>
+  <si>
+    <t>University of Chicago Medical Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Jakubowiak.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2f3e9cf9-e3f4-4e7f-a97a-278e2131e45a</t>
+  </si>
+  <si>
+    <t>Barbara Jarzab</t>
+  </si>
+  <si>
+    <t>MSC Memorial Cancer Center</t>
+  </si>
+  <si>
+    <t>Gliwice, Poland</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/jarzab.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f49b58f5-4cf0-4ae7-80fb-bbcb7b25db60</t>
+  </si>
+  <si>
+    <t>Christian Jackisch</t>
+  </si>
+  <si>
+    <t>Klinikum Offenbach</t>
+  </si>
+  <si>
+    <t>Offenbach, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Jackisch.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=54ae821e-bb6b-4d5d-914f-7c8fe36d31a6</t>
+  </si>
+  <si>
+    <t>David M. Jablons</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/jablons.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f2f5fd7e-493e-4047-a711-28ee368632a9</t>
+  </si>
+  <si>
+    <t>Elias Jabbour</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/jabbour2.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=028d1dea-d706-4002-a4df-81e9716197ed</t>
+  </si>
+  <si>
+    <t>Göran Jönsson</t>
+  </si>
+  <si>
+    <t>Lund University</t>
+  </si>
+  <si>
+    <t>Lund, Sweden</t>
+  </si>
+  <si>
+    <t>Guy Jerusalem</t>
+  </si>
+  <si>
+    <t>CHU Sart Tilman</t>
+  </si>
+  <si>
+    <t>Liége, Belgium</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Jerusalem.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ade3aeb5-6b87-46b4-a32b-7b402d6f7ad5</t>
+  </si>
+  <si>
+    <t>Heikki Joensuu</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Joensuu.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c72b6263-dda7-44d9-9c80-e5d1e20b64f7</t>
+  </si>
+  <si>
+    <t>Hyacinthe Johnson-Ansah</t>
+  </si>
+  <si>
+    <t>University Hospital Caen</t>
+  </si>
+  <si>
+    <t>Caen, France</t>
+  </si>
+  <si>
+    <t>Ian Judson</t>
+  </si>
+  <si>
+    <t>James Jakub</t>
+  </si>
+  <si>
+    <t>Rochester, Minnesota</t>
+  </si>
+  <si>
+    <t>Joseph Jacobson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Shore Medical Center </t>
+  </si>
+  <si>
+    <t>Salem, Massachusetts</t>
+  </si>
+  <si>
+    <t>Karin Jordan</t>
+  </si>
+  <si>
+    <t>University Hospital</t>
+  </si>
+  <si>
+    <t>Halle, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/jordan.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e816729d-89f2-4e08-9d6e-85969e664d3e</t>
+  </si>
+  <si>
+    <t>Linda X. Jin</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Washington University in St Louis</t>
+  </si>
+  <si>
+    <t>Maria José Ribal</t>
+  </si>
+  <si>
+    <t>Hospital Clinic of Barcelona</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/ribal.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c10e6008-2296-49b2-871c-be834f9259ba</t>
+  </si>
+  <si>
+    <t>Mohammad Jahanzeb</t>
+  </si>
+  <si>
+    <t>Sylvester Comprehensive Cancer Center University of Miami</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/jahanzeb.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=24bccee5-8948-43ba-bbd8-9e1691400833</t>
+  </si>
+  <si>
+    <t>Nicholas James</t>
+  </si>
+  <si>
+    <t>University of Birmingham</t>
+  </si>
+  <si>
+    <t>Birmingham, United Kingdom</t>
+  </si>
+  <si>
+    <t>Pasi Jänne</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Janne.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8efb76b2-1ca1-40af-9c36-7ae9b66f70eb</t>
+  </si>
+  <si>
+    <t>Patrick Johnston</t>
+  </si>
+  <si>
+    <t>Rochester, Minnesota USA</t>
+  </si>
+  <si>
+    <t>Philip Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Birmingham </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/johnon.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=be35d7fe-a221-4588-aee9-8ba4f88836ba</t>
+  </si>
+  <si>
+    <t>Raimund Jakesz</t>
+  </si>
+  <si>
+    <t>Robert Johnson</t>
+  </si>
+  <si>
+    <t>Memphis, Tennessee, United States</t>
+  </si>
+  <si>
+    <t>Sally Johnson</t>
+  </si>
+  <si>
+    <t>Great North Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Newcastle, United Kingdom</t>
+  </si>
+  <si>
+    <t>Stephen Jones</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/StephenJones.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5bc742dc-5e24-4853-ae2e-04eed7046498</t>
+  </si>
+  <si>
+    <t>Steven Joniau</t>
+  </si>
+  <si>
+    <t>University Hospital Leuven</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/joniau.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=47c8ef7a-bb9a-4534-a95e-9a42ef797506</t>
+  </si>
+  <si>
+    <t>Sundar Jagannath</t>
+  </si>
+  <si>
+    <t>The Mount Sinai Hospital</t>
+  </si>
+  <si>
+    <t>Thomas B. Julian</t>
+  </si>
+  <si>
+    <t>Allegheny General Hospital</t>
+  </si>
+  <si>
+    <t>Pittsburgh, Pennsylvania, United States</t>
+  </si>
+  <si>
+    <t>Valerie Jansen</t>
+  </si>
+  <si>
+    <t>Vanderbilt University</t>
+  </si>
+  <si>
+    <t>Warren A. Jones</t>
+  </si>
+  <si>
+    <t>University of Mississippi Medical Center</t>
+  </si>
+  <si>
+    <t>Jackson, Mississippi, United States</t>
+  </si>
+  <si>
+    <t>Wolfgang Janni</t>
+  </si>
+  <si>
+    <t>University of Ulm</t>
+  </si>
+  <si>
+    <t>Ulm, Germany</t>
+  </si>
+  <si>
+    <t>Wolfgang Jungraithmayr</t>
+  </si>
+  <si>
+    <t>University Hospital Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zurich, Switzerland </t>
+  </si>
+  <si>
+    <t>Yelena Yuriy Janjigian</t>
+  </si>
+  <si>
+    <t>Zefei Jiang</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -2532,10 +3857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="D264" sqref="D264"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A445" sqref="A445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +3939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2985,7 +4310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
@@ -3190,7 +4515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>135</v>
       </c>
@@ -3204,7 +4529,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>138</v>
       </c>
@@ -3346,7 +4671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>167</v>
       </c>
@@ -3536,7 +4861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>203</v>
       </c>
@@ -3679,7 +5004,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>228</v>
       </c>
@@ -3704,7 +5029,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>233</v>
       </c>
@@ -4171,7 +5496,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>327</v>
       </c>
@@ -4508,7 +5833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>389</v>
       </c>
@@ -4905,7 +6230,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>458</v>
       </c>
@@ -5346,7 +6671,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>542</v>
       </c>
@@ -5413,7 +6738,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>553</v>
       </c>
@@ -5593,7 +6918,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="211" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>584</v>
       </c>
@@ -6323,402 +7648,2904 @@
       <c r="C263" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D263" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B264" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="C264" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="s">
+        <v>707</v>
+      </c>
       <c r="C265" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D265" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
+        <v>709</v>
+      </c>
       <c r="C266" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
+        <v>713</v>
+      </c>
       <c r="C267" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>716</v>
+      </c>
       <c r="C268" s="2" t="s">
-        <v>19</v>
+        <v>685</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>720</v>
+      </c>
       <c r="C269" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>721</v>
+      </c>
       <c r="C270" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="s">
+        <v>723</v>
+      </c>
       <c r="C271" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D271" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B272" s="2" t="s">
+        <v>725</v>
+      </c>
       <c r="C272" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="s">
+        <v>726</v>
+      </c>
       <c r="C273" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>728</v>
+      </c>
       <c r="C274" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>732</v>
+      </c>
       <c r="C275" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
+        <v>736</v>
+      </c>
       <c r="C276" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="s">
+        <v>737</v>
+      </c>
       <c r="C277" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="2" t="s">
+        <v>738</v>
+      </c>
       <c r="C278" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="s">
+        <v>742</v>
+      </c>
       <c r="C279" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
+        <v>744</v>
+      </c>
       <c r="C280" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="s">
+        <v>746</v>
+      </c>
       <c r="C281" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="2" t="s">
+        <v>749</v>
+      </c>
       <c r="C282" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D282" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="2" t="s">
+        <v>752</v>
+      </c>
       <c r="C283" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D283" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B284" s="2" t="s">
+        <v>755</v>
+      </c>
       <c r="C284" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B285" s="2" t="s">
+        <v>760</v>
+      </c>
       <c r="C285" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D285" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B286" s="2" t="s">
+        <v>763</v>
+      </c>
       <c r="C286" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D286" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="C287" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>767</v>
+      </c>
       <c r="C288" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="C289" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="C290" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="C291" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B292" s="2" t="s">
+        <v>775</v>
+      </c>
       <c r="C292" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="C293" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
+        <v>781</v>
+      </c>
       <c r="C294" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="C295" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B297" s="2" t="s">
+        <v>784</v>
+      </c>
       <c r="C297" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B298" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="C298" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
+        <v>791</v>
+      </c>
       <c r="C299" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="2" t="s">
+        <v>794</v>
+      </c>
       <c r="C300" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B301" s="2" t="s">
+        <v>797</v>
+      </c>
       <c r="C301" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B302" s="2" t="s">
+        <v>800</v>
+      </c>
       <c r="C302" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="2" t="s">
+        <v>803</v>
+      </c>
       <c r="C303" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="C304" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="2" t="s">
+        <v>809</v>
+      </c>
       <c r="C305" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="2" t="s">
+        <v>810</v>
+      </c>
       <c r="C306" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="2" t="s">
+        <v>813</v>
+      </c>
       <c r="C307" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="2" t="s">
+        <v>816</v>
+      </c>
       <c r="C308" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D308" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="2" t="s">
+        <v>817</v>
+      </c>
       <c r="C309" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D309" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="2" t="s">
+        <v>820</v>
+      </c>
       <c r="C310" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B311" s="2" t="s">
+        <v>822</v>
+      </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="2" t="s">
+        <v>823</v>
+      </c>
       <c r="C312" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D312" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="2" t="s">
+        <v>826</v>
+      </c>
       <c r="C313" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D313" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B314" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="C314" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="C315" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D315" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B316" s="2" t="s">
+        <v>836</v>
+      </c>
       <c r="C316" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D316" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="C317" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D317" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="2" t="s">
+        <v>840</v>
+      </c>
       <c r="C318" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D318" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B319" s="2" t="s">
+        <v>841</v>
+      </c>
       <c r="C319" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D319" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="2" t="s">
+        <v>842</v>
+      </c>
       <c r="C320" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D320" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B321" s="2" t="s">
+        <v>844</v>
+      </c>
       <c r="C321" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B322" s="2" t="s">
+        <v>846</v>
+      </c>
       <c r="C322" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D322" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B323" s="2" t="s">
+        <v>850</v>
+      </c>
       <c r="C323" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B324" s="2" t="s">
+        <v>852</v>
+      </c>
       <c r="C324" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D324" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="2" t="s">
+        <v>854</v>
+      </c>
       <c r="C325" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B326" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C326" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D326" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B327" s="2" t="s">
+        <v>860</v>
+      </c>
       <c r="C327" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D327" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="2" t="s">
+        <v>863</v>
+      </c>
       <c r="C328" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B329" s="2" t="s">
+        <v>864</v>
+      </c>
       <c r="C329" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D329" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="2" t="s">
+        <v>866</v>
+      </c>
       <c r="C330" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D330" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B331" s="2" t="s">
+        <v>868</v>
+      </c>
       <c r="C331" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D331" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="2" t="s">
+        <v>870</v>
+      </c>
       <c r="C332" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B333" s="2" t="s">
+        <v>872</v>
+      </c>
       <c r="C333" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D333" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B334" s="2" t="s">
+        <v>875</v>
+      </c>
       <c r="C334" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D334" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
+        <v>878</v>
+      </c>
       <c r="C335" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="2" t="s">
+        <v>879</v>
+      </c>
       <c r="C336" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D336" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B337" s="2" t="s">
+        <v>882</v>
+      </c>
       <c r="C337" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B338" s="2" t="s">
+        <v>886</v>
+      </c>
       <c r="C338" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D338" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B339" s="2" t="s">
+        <v>887</v>
+      </c>
       <c r="C339" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B340" s="2" t="s">
+        <v>890</v>
+      </c>
       <c r="C340" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="2" t="s">
+        <v>893</v>
+      </c>
       <c r="C341" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D341" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B342" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B343" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B346" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B350" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B352" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B353" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="8"/>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="D354" s="8"/>
+      <c r="E354" s="8"/>
+      <c r="F354" s="8"/>
+    </row>
+    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B356" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B358" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B363" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B364" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B365" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B366" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B370" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B374" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B378" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B382" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B383" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B390" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B391" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B392" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B394" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B397" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B399" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B400" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B401" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="8"/>
+      <c r="B404" s="8"/>
+      <c r="C404" s="8"/>
+      <c r="D404" s="8"/>
+      <c r="E404" s="8"/>
+      <c r="F404" s="8"/>
+    </row>
+    <row r="405" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="8"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="8"/>
+      <c r="D407" s="8"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="8"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B408" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B410" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B413" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B415" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B416" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B417" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="420" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B420" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B421" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="422" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="423" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B423" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="425" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="426" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B427" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B429" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B431" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B432" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B436" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B438" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B440" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B443" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="8"/>
+      <c r="B444" s="8"/>
+      <c r="C444" s="8"/>
+      <c r="D444" s="8"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C445" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C446" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C447" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C448" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C449" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C450" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C451" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C452" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C453" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C454" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C455" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C456" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C457" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C458" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C459" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C460" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C461" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C462" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C463" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C464" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C465" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C466" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C467" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C468" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C469" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C470" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C471" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C472" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C473" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C474" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C475" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C476" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C477" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C478" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C479" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C480" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A404:F404"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="A444:F444"/>
     <mergeCell ref="A198:F198"/>
     <mergeCell ref="A241:F241"/>
     <mergeCell ref="A261:F261"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A354:F354"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -6756,6 +10583,8 @@
     <hyperlink ref="F188" r:id="rId33"/>
     <hyperlink ref="F203" r:id="rId34"/>
     <hyperlink ref="F253" r:id="rId35"/>
+    <hyperlink ref="F266" r:id="rId36"/>
+    <hyperlink ref="F310" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1472">
   <si>
     <t>Name</t>
   </si>
@@ -3465,6 +3465,1016 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>Adam Kibel</t>
+  </si>
+  <si>
+    <t>Agnieszka Korfel</t>
+  </si>
+  <si>
+    <t>Charite University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Korfel.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8a61f244-d775-4b21-abd1-dd53faa2a3fd</t>
+  </si>
+  <si>
+    <t>Alan Koletsky</t>
+  </si>
+  <si>
+    <t>The Center for Hematology Oncology</t>
+  </si>
+  <si>
+    <t>Bella Kaufman</t>
+  </si>
+  <si>
+    <t>Brad S. Kahl</t>
+  </si>
+  <si>
+    <t>University of Wisconsin Carbone Cancer Center</t>
+  </si>
+  <si>
+    <t>Madison, Wisconsin, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/kahl.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9c07047e-5cf0-473d-80e1-0ba445c8550a</t>
+  </si>
+  <si>
+    <t>Bruce Kava</t>
+  </si>
+  <si>
+    <t>Christhardt Köhler</t>
+  </si>
+  <si>
+    <t>Charité University Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin, Germany </t>
+  </si>
+  <si>
+    <t>Christian Kratzik</t>
+  </si>
+  <si>
+    <t>LLD, MD</t>
+  </si>
+  <si>
+    <t>University of Vienna</t>
+  </si>
+  <si>
+    <t>Christine Kempton</t>
+  </si>
+  <si>
+    <t>MD, MSc</t>
+  </si>
+  <si>
+    <t>David Kerr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD, DSc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Oxford </t>
+  </si>
+  <si>
+    <t>Oxford, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kerr.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=3211696e-6161-4134-a70b-586a49a840f5</t>
+  </si>
+  <si>
+    <t>Dirk Kieback</t>
+  </si>
+  <si>
+    <t>Edward Kim</t>
+  </si>
+  <si>
+    <t>Charlotte, North Carolina, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/kim2.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8a17dcb9-4dbd-4f7a-8ce7-da76f6a65462</t>
+  </si>
+  <si>
+    <t>Eva Kimby</t>
+  </si>
+  <si>
+    <t>Karolinska University Hospital</t>
+  </si>
+  <si>
+    <t>Fadlo Khuri</t>
+  </si>
+  <si>
+    <t>Gregory Kalemkerian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Michigan </t>
+  </si>
+  <si>
+    <t>H Jean Khoury</t>
+  </si>
+  <si>
+    <t>Hagop Kantarjian</t>
+  </si>
+  <si>
+    <t>The University of Texas 
+MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kantarjian.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5b107d97-ac06-4f7d-95ae-1baec6f06988</t>
+  </si>
+  <si>
+    <t>Hanneke Kluin-Nelemans</t>
+  </si>
+  <si>
+    <t>University Medical Center Groningen</t>
+  </si>
+  <si>
+    <t>Groningen, the Netherlands</t>
+  </si>
+  <si>
+    <t>Hans Michael Kvasnicka</t>
+  </si>
+  <si>
+    <t>University of Frankfurt</t>
+  </si>
+  <si>
+    <t>Frankfurt, Germany</t>
+  </si>
+  <si>
+    <t>Harriet Kluger</t>
+  </si>
+  <si>
+    <t>Yale School of Medicine</t>
+  </si>
+  <si>
+    <t>Holly R. Kubaney</t>
+  </si>
+  <si>
+    <t>MSN, PNP-BC, CPON&lt;sup&gt;&amp;reg;&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Dell Children’s Medical Center of Central Texas</t>
+  </si>
+  <si>
+    <t>Austin, Texas</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/kubaney_holly.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b586b4c6-abd8-4257-b3f4-2edc366b889f</t>
+  </si>
+  <si>
+    <t>Howard L. Kaufman</t>
+  </si>
+  <si>
+    <t>Rutgers Cancer Institute</t>
+  </si>
+  <si>
+    <t>New Brunswick, New Jersey, United States</t>
+  </si>
+  <si>
+    <t>Ian Kunkler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh, Scotland </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kunkler.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=553d8bc6-4cdb-4f6f-ab60-f0eb7f6285ea</t>
+  </si>
+  <si>
+    <t>Irene Krämer</t>
+  </si>
+  <si>
+    <t>University Medical Center
+Johannes Gutenberg University</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kramer.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=80f8a106-3ec6-47bc-bc4b-f80a59cf8eff</t>
+  </si>
+  <si>
+    <t>Jean-Jacques Kiladjian</t>
+  </si>
+  <si>
+    <t>Saint-Louis Hospital &amp; Université Paris Diderot</t>
+  </si>
+  <si>
+    <t>Jens Kampmann</t>
+  </si>
+  <si>
+    <t>MD, DMSc</t>
+  </si>
+  <si>
+    <t>Bispebjerg Hospital</t>
+  </si>
+  <si>
+    <t>Copenhagen, Denmark</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kampmann.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=44aa0579-3605-40dd-95d2-e3e280611f74</t>
+  </si>
+  <si>
+    <t>Jonathan Kaufman</t>
+  </si>
+  <si>
+    <t>Jos Kosterink</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kosterink.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=65c76fb9-417d-44df-aaba-53b6eb17e198</t>
+  </si>
+  <si>
+    <t>Junichi Kurebayashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawasaki Medical School       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurashiki, Japan </t>
+  </si>
+  <si>
+    <t>Kari Kendra</t>
+  </si>
+  <si>
+    <t>Keith Kerr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD, FRCPath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen Royal Infirmary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen, United Kingdom </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kerr.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=89a2f162-58d4-4ad0-8067-05ad79b430a9</t>
+  </si>
+  <si>
+    <t>Krishna Komanduri</t>
+  </si>
+  <si>
+    <t>University of Miami 
+Sylvester Cancer Center</t>
+  </si>
+  <si>
+    <t>Miami, Florida, United States</t>
+  </si>
+  <si>
+    <t>Lee Krug</t>
+  </si>
+  <si>
+    <t>Mark Kozloff</t>
+  </si>
+  <si>
+    <t>The University of Chicago Medicine</t>
+  </si>
+  <si>
+    <t>Mary-Claire King</t>
+  </si>
+  <si>
+    <t>University of Washington School of Medicine</t>
+  </si>
+  <si>
+    <t>Merrill Kies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. D. Anderson Cancer Center </t>
+  </si>
+  <si>
+    <t>Michael Kasper</t>
+  </si>
+  <si>
+    <t>Boca Raton Community Hospital</t>
+  </si>
+  <si>
+    <t>Michael Keating</t>
+  </si>
+  <si>
+    <t>MB, BS</t>
+  </si>
+  <si>
+    <t>M.D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Michael Kosty</t>
+  </si>
+  <si>
+    <t>Scripps Green Cancer Center</t>
+  </si>
+  <si>
+    <t>Michael Kroll</t>
+  </si>
+  <si>
+    <t>Miriam Koopman</t>
+  </si>
+  <si>
+    <t>University Medical Center Utrecht</t>
+  </si>
+  <si>
+    <t>Utrecht, the Netherlands</t>
+  </si>
+  <si>
+    <t>Nicolaus Kröger</t>
+  </si>
+  <si>
+    <t>University Medical Center Hamburg-Eppendorf</t>
+  </si>
+  <si>
+    <t>Hamburg, Germany</t>
+  </si>
+  <si>
+    <t>Omar Kucuk</t>
+  </si>
+  <si>
+    <t>Philip Kantoff</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kantoff.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9931692d-3852-4db0-806d-d6d3f9634d38</t>
+  </si>
+  <si>
+    <t>Ragini Kudchadkar</t>
+  </si>
+  <si>
+    <t>Rami Komrokji</t>
+  </si>
+  <si>
+    <t>Tampa, Florida, United States</t>
+  </si>
+  <si>
+    <t>Rebecca Klisovic</t>
+  </si>
+  <si>
+    <t>The Ohio State University
+Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Reem Karmali</t>
+  </si>
+  <si>
+    <t>Rush University Medical Center</t>
+  </si>
+  <si>
+    <t>Ria Kleppe</t>
+  </si>
+  <si>
+    <t>Richard Kefford</t>
+  </si>
+  <si>
+    <t>MBBS, PhD</t>
+  </si>
+  <si>
+    <t>University of Sydney</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kefford.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b23f6c3c-1e1f-4b23-8ee2-1d4669c30e20</t>
+  </si>
+  <si>
+    <t>Richard Kelly</t>
+  </si>
+  <si>
+    <t>St James University Hospital</t>
+  </si>
+  <si>
+    <t>Leeds, United Kingdom</t>
+  </si>
+  <si>
+    <t>Sean Kehoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD, FRCOG </t>
+  </si>
+  <si>
+    <t>Shaji Kumar</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/kumar.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5b01a2ee-8605-45f8-bd1d-8c758ecc1f75</t>
+  </si>
+  <si>
+    <t>Stanley B. Kaye</t>
+  </si>
+  <si>
+    <t>The Royal Marsden Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Kaye.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=cc4badfb-018b-4dd5-80aa-49ae4dd2051b</t>
+  </si>
+  <si>
+    <t>Stefan Kubicka</t>
+  </si>
+  <si>
+    <t>Department of Internal Medicine I District Hospital Reutlingen</t>
+  </si>
+  <si>
+    <t>Reutlingen, Germany</t>
+  </si>
+  <si>
+    <t>Steffen Koschmieder</t>
+  </si>
+  <si>
+    <t>Tari King</t>
+  </si>
+  <si>
+    <t>Ulrich Keilholz</t>
+  </si>
+  <si>
+    <t>Charité Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Alan List</t>
+  </si>
+  <si>
+    <t>Amelia Langston</t>
+  </si>
+  <si>
+    <t>Ana Lluch</t>
+  </si>
+  <si>
+    <t>Annette Larsen</t>
+  </si>
+  <si>
+    <t>DVM, PhD</t>
+  </si>
+  <si>
+    <t>Pierre and Marie Curie University</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/larsen.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b4ef6b6d-c7aa-4721-bf52-869c36e33156</t>
+  </si>
+  <si>
+    <t>Antonio Llombart</t>
+  </si>
+  <si>
+    <t>Caio Max Rocha Lima</t>
+  </si>
+  <si>
+    <t>Celeste Lebbé</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Lebbe.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1445e0ae-ffa7-4a6f-a799-69aae76c26ef</t>
+  </si>
+  <si>
+    <t>Chantal Loirat</t>
+  </si>
+  <si>
+    <t>Hospital Robert Debré</t>
+  </si>
+  <si>
+    <t>Christopher Lathan</t>
+  </si>
+  <si>
+    <t>MD, MS, MPH</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Lathan.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a114ad0d-9a7a-4b6d-8948-232d0aec4241</t>
+  </si>
+  <si>
+    <t>Christopher Lieu</t>
+  </si>
+  <si>
+    <t>Aurora, Colorado</t>
+  </si>
+  <si>
+    <t>Craig Langman</t>
+  </si>
+  <si>
+    <t>Northwestern University Feinberg School of Medicine</t>
+  </si>
+  <si>
+    <t>Craig Lockhart</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/lockhart.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a433166a-6c84-4476-8861-76336b31ff93</t>
+  </si>
+  <si>
+    <t>David Lawson</t>
+  </si>
+  <si>
+    <t>Douglas Levine</t>
+  </si>
+  <si>
+    <t>Edward Li</t>
+  </si>
+  <si>
+    <t>PharmD, BCOP</t>
+  </si>
+  <si>
+    <t>University of New England College of Pharmacy</t>
+  </si>
+  <si>
+    <t>Portland, Maine</t>
+  </si>
+  <si>
+    <t>Edward H. Lin</t>
+  </si>
+  <si>
+    <t>Ephrat Levy-Lahad</t>
+  </si>
+  <si>
+    <t>Shaare Zedek Medical Center</t>
+  </si>
+  <si>
+    <t>Jerusalem, Israel</t>
+  </si>
+  <si>
+    <t>Fabrice Lécuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hôpital Européen Georges Pompidou     </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Loupakis.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1ee75c59-d24a-451f-8506-48aa16b03e6c</t>
+  </si>
+  <si>
+    <t>Gary H. Lyman</t>
+  </si>
+  <si>
+    <t>MD, MPH, FRCP (Edin)</t>
+  </si>
+  <si>
+    <t>Duke University</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/lyman.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=916bd770-dd0c-4eb2-987b-3a4d9bc4a05c</t>
+  </si>
+  <si>
+    <t>Georgina Long</t>
+  </si>
+  <si>
+    <t>Heinz Ludwig</t>
+  </si>
+  <si>
+    <t>Wilhelminen Hospital</t>
+  </si>
+  <si>
+    <t>Henk Lokhorst</t>
+  </si>
+  <si>
+    <t>Henrik Lindman</t>
+  </si>
+  <si>
+    <t>Uppsala University Hospital</t>
+  </si>
+  <si>
+    <t>Uppsala, Sweden</t>
+  </si>
+  <si>
+    <t>James Larkin</t>
+  </si>
+  <si>
+    <t>FRCP, PhD</t>
+  </si>
+  <si>
+    <t>The Royal Marsden</t>
+  </si>
+  <si>
+    <t>Jan Lubinski</t>
+  </si>
+  <si>
+    <t>Pomeranian Medical University</t>
+  </si>
+  <si>
+    <t>Szczecin, Poland</t>
+  </si>
+  <si>
+    <t>Jason J. Luke</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>Jeffrey Lancet</t>
+  </si>
+  <si>
+    <t>Moffitt Cancer Center</t>
+  </si>
+  <si>
+    <t>Jeffrey Lipton</t>
+  </si>
+  <si>
+    <t>Princess Margaret Cancer Centre
+University of Toronto</t>
+  </si>
+  <si>
+    <t>John Leonard</t>
+  </si>
+  <si>
+    <t>Jonathan Ledermann</t>
+  </si>
+  <si>
+    <t>UCL Cancer Institute University College London</t>
+  </si>
+  <si>
+    <t>Jose Lutzky</t>
+  </si>
+  <si>
+    <t>Aptium Oncology</t>
+  </si>
+  <si>
+    <t>Hospital Clinic of Barcelona, Barcelona, Spain
+Mount Sinai Hospital</t>
+  </si>
+  <si>
+    <t>Joseph Llovet</t>
+  </si>
+  <si>
+    <t>Joseph Landolfi</t>
+  </si>
+  <si>
+    <t>JFK Medical Center</t>
+  </si>
+  <si>
+    <t>Edison, New Jersey</t>
+  </si>
+  <si>
+    <t>Joseph Leach</t>
+  </si>
+  <si>
+    <t>Minnesota Oncology</t>
+  </si>
+  <si>
+    <t>Minneapolis, Minnesota</t>
+  </si>
+  <si>
+    <t>Joseph Lucci</t>
+  </si>
+  <si>
+    <t>Karin Leunen</t>
+  </si>
+  <si>
+    <t>University Hospitals Leuven</t>
+  </si>
+  <si>
+    <t>Kenneth Lieberman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackensack University Medical Center </t>
+  </si>
+  <si>
+    <t>Hackensack, New Jersey</t>
+  </si>
+  <si>
+    <t>Lee Lokey</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/lokey.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=de5883c0-50ed-469f-8074-acd919396ab4</t>
+  </si>
+  <si>
+    <t>Lionel Larue</t>
+  </si>
+  <si>
+    <t>Institute Curie</t>
+  </si>
+  <si>
+    <t>Marc Lippman</t>
+  </si>
+  <si>
+    <t>Martha Lacy</t>
+  </si>
+  <si>
+    <t>Mary Jo Lechowicz</t>
+  </si>
+  <si>
+    <t>Meijin Liu</t>
+  </si>
+  <si>
+    <t>Natasha Leighl</t>
+  </si>
+  <si>
+    <t>MD, MMSc, FRCPC</t>
+  </si>
+  <si>
+    <t>Princess Margaret Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/leighl.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=193ab0ad-4435-4e70-b676-2b2f5d0a6fbd</t>
+  </si>
+  <si>
+    <t>Nikoletta Lendvai</t>
+  </si>
+  <si>
+    <t>Paul Lorigan</t>
+  </si>
+  <si>
+    <t>MB, FRCP</t>
+  </si>
+  <si>
+    <t>The University of Manchester
+Christie NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Lorigan.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=dbffbc3f-a7a3-448e-8872-3a61bf099aef</t>
+  </si>
+  <si>
+    <t>Phillip le Coutre</t>
+  </si>
+  <si>
+    <t>Charité Universitätsmedizin</t>
+  </si>
+  <si>
+    <t>Pierre Laneuville</t>
+  </si>
+  <si>
+    <t>McGill University Montreal</t>
+  </si>
+  <si>
+    <t>Quebec, Canada</t>
+  </si>
+  <si>
+    <t>Regan Look</t>
+  </si>
+  <si>
+    <t>Compass Oncology</t>
+  </si>
+  <si>
+    <t>Portland, Oregon</t>
+  </si>
+  <si>
+    <t>Riccardo Lencioni</t>
+  </si>
+  <si>
+    <t>MD, FSIR, EBIR</t>
+  </si>
+  <si>
+    <t>Pisa University School of Medicine</t>
+  </si>
+  <si>
+    <t>Richard Larson</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/larson.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=28444e72-c455-4f79-83e5-5b6b073f8998</t>
+  </si>
+  <si>
+    <t>Roger Lyons</t>
+  </si>
+  <si>
+    <t>Cancer Care Centers of South Texas</t>
+  </si>
+  <si>
+    <t>Ross L Levine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, United States </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Levine.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1d85b013-654f-44c6-ad66-41043ba16116</t>
+  </si>
+  <si>
+    <t>Sagar Lonial</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Lonial.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d43b648b-2bb9-45f7-83e0-271ba4edbf85</t>
+  </si>
+  <si>
+    <t>Sancy Leachman</t>
+  </si>
+  <si>
+    <t>Sherene Loi</t>
+  </si>
+  <si>
+    <t>Peter MacCallum Cancer Centre</t>
+  </si>
+  <si>
+    <t>East Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Sibylle Loibl</t>
+  </si>
+  <si>
+    <t>German Breast Group</t>
+  </si>
+  <si>
+    <t>Neu-Isenburg, Germany</t>
+  </si>
+  <si>
+    <t>Spyros Lazarou</t>
+  </si>
+  <si>
+    <t>Consultant Radiologist</t>
+  </si>
+  <si>
+    <t>Thera P. Links</t>
+  </si>
+  <si>
+    <t>University Medical Centre Groningen</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/links_thera.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4faa1dab-b5c6-4f23-827b-536c8358d104</t>
+  </si>
+  <si>
+    <t>Thierry Le Chevalier</t>
+  </si>
+  <si>
+    <t>Thomas Lynch</t>
+  </si>
+  <si>
+    <t>Yale Cancer Center</t>
+  </si>
+  <si>
+    <t>New Haven, Connecticut, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Lynch.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b0b8c361-50b8-4a08-a565-0d1ad910603e</t>
+  </si>
+  <si>
+    <t>Thomas Lynch, Jr</t>
+  </si>
+  <si>
+    <t>New Haven, CT, United States</t>
+  </si>
+  <si>
+    <t>Xavier Leleu</t>
+  </si>
+  <si>
+    <t>Hôpital Claude Huriez</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/leleu.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=130d739b-11bf-4a56-9d71-3e8e5e334ed4</t>
+  </si>
+  <si>
+    <t>Alain Monnier</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Angelo Maggioni</t>
+  </si>
+  <si>
+    <t>Antonella Meloni</t>
+  </si>
+  <si>
+    <t>Fondazione G. Monasterio CNR-Regione Toscana 
+Institute of Clinical Physiology</t>
+  </si>
+  <si>
+    <t>Antonio González Martín</t>
+  </si>
+  <si>
+    <t>M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid, Spain </t>
+  </si>
+  <si>
+    <t>Bradley J. Monk</t>
+  </si>
+  <si>
+    <t>MD, FACS, FACOG</t>
+  </si>
+  <si>
+    <t>Creighton University School of Medicine at St Joseph's Hospital and Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix, Arizona, United States </t>
+  </si>
+  <si>
+    <t>Bijay Mukherji</t>
+  </si>
+  <si>
+    <t>University of Connecticut Health Center</t>
+  </si>
+  <si>
+    <t>Farmington, Connecticut</t>
+  </si>
+  <si>
+    <t>Bruce Minsky</t>
+  </si>
+  <si>
+    <t>Christian Marth</t>
+  </si>
+  <si>
+    <t>Innsbruck Medical University</t>
+  </si>
+  <si>
+    <t>Innsbruck, Austria</t>
+  </si>
+  <si>
+    <t>Christian Monnerat</t>
+  </si>
+  <si>
+    <t>Christos Markopoulos</t>
+  </si>
+  <si>
+    <t>Athens University Medical School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athens, Greece </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Markopoulos.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1563b83a-7be2-4a44-bd43-069d898c6b6b</t>
+  </si>
+  <si>
+    <t>Clarissa Mathias</t>
+  </si>
+  <si>
+    <t>Nuelo De Onc Da Ba Sie Ltda</t>
+  </si>
+  <si>
+    <t>Salvador Bahia, Brasil</t>
+  </si>
+  <si>
+    <t>Craig Moskowitz</t>
+  </si>
+  <si>
+    <t>David Miles</t>
+  </si>
+  <si>
+    <t>Mt. Vernon Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/miles.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8a7a1a6b-8d56-4c1b-b00e-99ddcaf9df0a</t>
+  </si>
+  <si>
+    <t>Dror Meirow</t>
+  </si>
+  <si>
+    <t>Edith Mitchell</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson University</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mitchel.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f86e7fba-1ec7-406c-a25d-ea869159cbee</t>
+  </si>
+  <si>
+    <t>Eleftherios Mamounas</t>
+  </si>
+  <si>
+    <t>Aultman Hospital</t>
+  </si>
+  <si>
+    <t>Canton, OH, USA</t>
+  </si>
+  <si>
+    <t>Luca Malcovati</t>
+  </si>
+  <si>
+    <t>Department of Hematology, University of Pavia Medical School, IRCCS Policlinico San Matteo</t>
+  </si>
+  <si>
+    <t>Pavia, Italy</t>
+  </si>
+  <si>
+    <t>Maciej Mrugala</t>
+  </si>
+  <si>
+    <t>MD, PhD, MPH</t>
+  </si>
+  <si>
+    <t>Fred Hutchinson Cancer Research Center University of Washington</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mrugala.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f1409bde-769e-4bfb-aa7b-1cc3e56290d5</t>
+  </si>
+  <si>
+    <t>Malcolm Moore</t>
+  </si>
+  <si>
+    <t>Mansoor R. Mirza</t>
+  </si>
+  <si>
+    <t>Rigshopitalet, Copenhagen University Hospital</t>
+  </si>
+  <si>
+    <t>María-Victoria Mateos</t>
+  </si>
+  <si>
+    <t>Mark Middleton</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>Martin C. Müller</t>
+  </si>
+  <si>
+    <t>Universitätsmedizin Mannheim</t>
+  </si>
+  <si>
+    <t>Mary Frances McMullin</t>
+  </si>
+  <si>
+    <t>MD, FRCPath</t>
+  </si>
+  <si>
+    <t>Belfast City Hospital</t>
+  </si>
+  <si>
+    <t>Belfast, United Kingdom</t>
+  </si>
+  <si>
+    <t>Matthew Milowsky</t>
+  </si>
+  <si>
+    <t>Michael Mann</t>
+  </si>
+  <si>
+    <t>Michael Mauro</t>
+  </si>
+  <si>
+    <t>Oregon Health &amp;amp; Science University</t>
+  </si>
+  <si>
+    <t>Portland, Oregon, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mauro.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0ba2a9e2-6313-4cc4-b9c3-e5297b165c13</t>
   </si>
 </sst>
 </file>
@@ -3857,10 +4867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F647"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445"/>
+    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F596" sqref="F596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +4878,7 @@
     <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="76.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -10306,238 +11316,2456 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="2" t="s">
+        <v>1138</v>
+      </c>
       <c r="C445" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D445" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E445" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="2" t="s">
+        <v>1139</v>
+      </c>
       <c r="C446" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D446" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="2" t="s">
+        <v>1142</v>
+      </c>
       <c r="C447" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D447" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E447" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B448" s="2" t="s">
+        <v>1144</v>
+      </c>
       <c r="C448" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D448" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="449" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="2" t="s">
+        <v>1145</v>
+      </c>
       <c r="C449" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D449" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E449" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="450" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B450" s="2" t="s">
+        <v>1149</v>
+      </c>
       <c r="C450" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="451" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="2" t="s">
+        <v>1150</v>
+      </c>
       <c r="C451" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D451" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="452" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B452" s="2" t="s">
+        <v>1153</v>
+      </c>
       <c r="C452" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="453" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B453" s="2" t="s">
+        <v>1156</v>
+      </c>
       <c r="C453" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E453" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="454" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B454" s="2" t="s">
+        <v>1158</v>
+      </c>
       <c r="C454" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="455" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B455" s="2" t="s">
+        <v>1163</v>
+      </c>
       <c r="C455" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="456" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="2" t="s">
+        <v>1164</v>
+      </c>
       <c r="C456" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D456" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="457" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="2" t="s">
+        <v>1167</v>
+      </c>
       <c r="C457" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E457" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="458" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B458" s="2" t="s">
+        <v>1169</v>
+      </c>
       <c r="C458" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D458" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="459" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="2" t="s">
+        <v>1170</v>
+      </c>
       <c r="C459" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D459" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E459" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="460" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B460" s="2" t="s">
+        <v>1172</v>
+      </c>
       <c r="C460" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D460" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="461" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B461" s="2" t="s">
+        <v>1173</v>
+      </c>
       <c r="C461" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D461" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E461" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="462" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="2" t="s">
+        <v>1176</v>
+      </c>
       <c r="C462" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="463" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="2" t="s">
+        <v>1179</v>
+      </c>
       <c r="C463" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D463" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="464" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B464" s="2" t="s">
+        <v>1182</v>
+      </c>
       <c r="C464" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D464" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="465" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="2" t="s">
+        <v>1184</v>
+      </c>
       <c r="C465" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="466" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B466" s="2" t="s">
+        <v>1189</v>
+      </c>
       <c r="C466" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="467" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B467" s="2" t="s">
+        <v>1192</v>
+      </c>
       <c r="C467" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D467" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="468" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B468" s="2" t="s">
+        <v>1195</v>
+      </c>
       <c r="C468" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="469" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="2" t="s">
+        <v>1198</v>
+      </c>
       <c r="C469" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E469" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="470" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B470" s="2" t="s">
+        <v>1200</v>
+      </c>
       <c r="C470" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="471" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B471" s="2" t="s">
+        <v>1205</v>
+      </c>
       <c r="C471" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D471" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E471" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="472" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="2" t="s">
+        <v>1206</v>
+      </c>
       <c r="C472" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="473" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B473" s="2" t="s">
+        <v>1208</v>
+      </c>
       <c r="C473" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="474" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B474" s="2" t="s">
+        <v>1211</v>
+      </c>
       <c r="C474" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="475" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="2" t="s">
+        <v>1212</v>
+      </c>
       <c r="C475" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1213</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="476" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B476" s="2" t="s">
+        <v>1217</v>
+      </c>
       <c r="C476" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D476" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="477" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="2" t="s">
+        <v>1220</v>
+      </c>
       <c r="C477" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D477" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E477" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="478" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="2" t="s">
+        <v>1221</v>
+      </c>
       <c r="C478" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D478" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="479" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="2" t="s">
+        <v>1223</v>
+      </c>
       <c r="C479" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="480" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B480" s="2" t="s">
+        <v>1225</v>
+      </c>
       <c r="C480" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D480" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="481" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B481" s="2" t="s">
+        <v>1227</v>
+      </c>
       <c r="C481" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D481" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E481" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="482" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="2" t="s">
+        <v>1229</v>
+      </c>
       <c r="C482" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1230</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="483" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="2" t="s">
+        <v>1232</v>
+      </c>
       <c r="C483" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="484" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B484" s="2" t="s">
+        <v>1234</v>
+      </c>
       <c r="C484" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D484" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="485" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="2" t="s">
+        <v>1235</v>
+      </c>
       <c r="C485" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="486" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="2" t="s">
+        <v>1238</v>
+      </c>
       <c r="C486" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D486" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="487" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B487" s="2" t="s">
+        <v>1241</v>
+      </c>
       <c r="C487" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D487" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="488" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B488" s="2" t="s">
+        <v>1242</v>
+      </c>
       <c r="C488" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D488" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="489" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B489" s="2" t="s">
+        <v>1244</v>
+      </c>
       <c r="C489" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D489" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="490" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="2" t="s">
+        <v>1245</v>
+      </c>
       <c r="C490" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D490" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="491" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B491" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="492" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="493" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B494" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="495" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="496" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B496" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E501" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B502" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="8"/>
+      <c r="B503" s="8"/>
+      <c r="C503" s="8"/>
+      <c r="D503" s="8"/>
+      <c r="E503" s="8"/>
+      <c r="F503" s="8"/>
+    </row>
+    <row r="504" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B505" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B506" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E507" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B508" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E509" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B510" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B511" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="513" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B513" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E513" s="5" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="514" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="515" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="516" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B516" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="517" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="518" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="519" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E519" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="520" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="521" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E521" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="522" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B522" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="523" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E523" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B524" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B525" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E525" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="526" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="527" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="528" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B528" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="529" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E529" s="5" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B530" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="531" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B531" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E531" s="5" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="532" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B532" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="533" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E533" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="534" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B535" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E535" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="536" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B536" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B537" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E537" s="5" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B538" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="539" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B539" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E539" s="5" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="540" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="541" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E541" s="5" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="542" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B543" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="544" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B544" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="545" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B545" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E545" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B546" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B547" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="549" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E549" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="550" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B550" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="551" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E551" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="552" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B553" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E553" s="5" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="554" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="555" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E555" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="556" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="557" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E557" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="558" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="559" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="560" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B561" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E561" s="5" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B562" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B563" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E563" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B564" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E565" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B566" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B567" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E567" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="8"/>
+      <c r="B568" s="8"/>
+      <c r="C568" s="8"/>
+      <c r="D568" s="8"/>
+      <c r="E568" s="8"/>
+      <c r="F568" s="8"/>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B569" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E569" s="5" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B571" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E571" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E573" s="5" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B575" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E575" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B576" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B577" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B579" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E579" s="5" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="580" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="581" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E581" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B582" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="583" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E583" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="584" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B585" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E585" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="586" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="587" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B587" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="588" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B588" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="589" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E589" s="5" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="590" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B591" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E591" s="5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B592" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="593" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E593" s="5" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="594" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="595" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B595" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E595" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="596" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C597" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C598" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C599" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C600" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C601" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C602" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C603" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C604" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C605" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C606" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="607" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C607" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="608" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C608" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C645" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A503:F503"/>
+    <mergeCell ref="A568:F568"/>
     <mergeCell ref="A404:F404"/>
     <mergeCell ref="A407:F407"/>
     <mergeCell ref="A444:F444"/>

--- a/Prime-rebuild/experts/experts.xlsx
+++ b/Prime-rebuild/experts/experts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3733" uniqueCount="2122">
   <si>
     <t>Name</t>
   </si>
@@ -4475,6 +4475,1982 @@
   </si>
   <si>
     <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mauro.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0ba2a9e2-6313-4cc4-b9c3-e5297b165c13</t>
+  </si>
+  <si>
+    <t>Michele Maio</t>
+  </si>
+  <si>
+    <t>University Hospital Siena</t>
+  </si>
+  <si>
+    <t>Siena, Italy</t>
+  </si>
+  <si>
+    <t>Minesh P. Mehta</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mehta.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0c361fff-d41e-456f-b637-006e8754383c</t>
+  </si>
+  <si>
+    <t>Monica Morrow</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Morrow.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=49c4b84e-9c74-4679-8419-48be44fcd8b6</t>
+  </si>
+  <si>
+    <t>Morgan McLemore</t>
+  </si>
+  <si>
+    <t>Paola Minghetti</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Minghetti.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=17afa095-d4fe-4271-ad52-6b2ebb510c71</t>
+  </si>
+  <si>
+    <t>Peter McLaughlin</t>
+  </si>
+  <si>
+    <t>University of Texas, M. D. Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Peter Mulders</t>
+  </si>
+  <si>
+    <t>Radboud University Nijmegen Medical Centre</t>
+  </si>
+  <si>
+    <t>Nijmegen, the Netherlands</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mulders.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b7e24693-3cec-4acd-bb55-d84a15c55585</t>
+  </si>
+  <si>
+    <t>Philippe Moreau</t>
+  </si>
+  <si>
+    <t>University Hospital of Nantes</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Moreau.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=983eeadf-8d69-4ad9-9c9b-ccc10e3264c9</t>
+  </si>
+  <si>
+    <t>Reshma Mahtani</t>
+  </si>
+  <si>
+    <t>Sylvester Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Ricardo Marques</t>
+  </si>
+  <si>
+    <t>Richard Marais</t>
+  </si>
+  <si>
+    <t>Paterson Institute for Cancer Research</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Marais.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0af0606f-723f-4cf4-80c9-37c15a628e70</t>
+  </si>
+  <si>
+    <t>Robert C.G. Martin, II</t>
+  </si>
+  <si>
+    <t>James Graham Brown Cancer Center University of Louisville</t>
+  </si>
+  <si>
+    <t>Louisville, Kentucky, United States</t>
+  </si>
+  <si>
+    <t>Ruben Mesa</t>
+  </si>
+  <si>
+    <t>Scottsdale, Arizona, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mesa.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=3dd79250-c3eb-4443-a215-584f740578f7</t>
+  </si>
+  <si>
+    <t>Shihir Maithel</t>
+  </si>
+  <si>
+    <t>Stephan Moll</t>
+  </si>
+  <si>
+    <t>University of North Carolina 
+School of Medicine</t>
+  </si>
+  <si>
+    <t>Sven Mahner</t>
+  </si>
+  <si>
+    <t>Terry Mamounas</t>
+  </si>
+  <si>
+    <t>MD, MPH, FACS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Florida Health Cancer Center
+at Orlando Health </t>
+  </si>
+  <si>
+    <t>Orlando, Florida, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/MAMOUNAS.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=6a0c32e1-f748-4579-950e-d4be0da35903</t>
+  </si>
+  <si>
+    <t>Tetsuya Mitsudomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinki University Faculty of Medicine </t>
+  </si>
+  <si>
+    <t>Osaka-Sayama, Japan</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mitsudomi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ef4b7c5f-aa10-4beb-b915-9a825e3bf22e</t>
+  </si>
+  <si>
+    <t>Tony Mok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Chinese University of Hong Kong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong, China </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Mok.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=38e9c3dc-6991-413c-81b0-756d0eb9f7ff</t>
+  </si>
+  <si>
+    <t>Ulf-Henrik Mellqvist</t>
+  </si>
+  <si>
+    <t>Sahlgrenska University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/mellqvist.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=58d07e8d-d617-4bbe-a8f2-4a2657b24ec5</t>
+  </si>
+  <si>
+    <t>Vera Malkovska</t>
+  </si>
+  <si>
+    <t>Washington Cancer Institute</t>
+  </si>
+  <si>
+    <t>Vincent Miller</t>
+  </si>
+  <si>
+    <t>Memorial Sloan-Kettering Cancer Center, New York, New York</t>
+  </si>
+  <si>
+    <t>Viraj Master</t>
+  </si>
+  <si>
+    <t>MD, PhD, FACS</t>
+  </si>
+  <si>
+    <t>Worta McCaskill-Stevens</t>
+  </si>
+  <si>
+    <t>Bethesda, Maryland, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/McCaskills-Stevens.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=45b54a19-2a3a-486f-b460-50e19fb81fe8</t>
+  </si>
+  <si>
+    <t>Adrian Newland</t>
+  </si>
+  <si>
+    <t>Department of Hematology, Royal London Hospital</t>
+  </si>
+  <si>
+    <t>Andrew Nicholson</t>
+  </si>
+  <si>
+    <t>Royal Brompton Hospital</t>
+  </si>
+  <si>
+    <t>Bart Neyns</t>
+  </si>
+  <si>
+    <t>University Hospital Brussels</t>
+  </si>
+  <si>
+    <t>Bernard Nordlinger</t>
+  </si>
+  <si>
+    <t>Hospital Ambrose Paré</t>
+  </si>
+  <si>
+    <t>Boulogne, France</t>
+  </si>
+  <si>
+    <t>Dao Nguyen</t>
+  </si>
+  <si>
+    <t>Dietger Niederwieser</t>
+  </si>
+  <si>
+    <t>University of Leipzig</t>
+  </si>
+  <si>
+    <t>Leipzig, Germany</t>
+  </si>
+  <si>
+    <t>Douglas Ney</t>
+  </si>
+  <si>
+    <t>University of Colorado School of Medicine</t>
+  </si>
+  <si>
+    <t>Julia Newton-Bishop</t>
+  </si>
+  <si>
+    <t>University of Leeds</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Newton-Bishop.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=23376a91-135c-4efd-9d87-6e657f8310a9</t>
+  </si>
+  <si>
+    <t>Kate Newbold</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/newbold.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=77bc1b09-061d-4171-8bfc-a1d051009659</t>
+  </si>
+  <si>
+    <t>Larry Norton</t>
+  </si>
+  <si>
+    <t>New York, New York, USA</t>
+  </si>
+  <si>
+    <t>Leia Nghiemphu</t>
+  </si>
+  <si>
+    <t>Los Angeles, California</t>
+  </si>
+  <si>
+    <t>Lucia Nogova</t>
+  </si>
+  <si>
+    <t>University Hospital Cologne</t>
+  </si>
+  <si>
+    <t>Ronald Natale</t>
+  </si>
+  <si>
+    <t>Cedars-Sinai Medical Center</t>
+  </si>
+  <si>
+    <t>Ruben Niesvizky</t>
+  </si>
+  <si>
+    <t>Seema Nagpal</t>
+  </si>
+  <si>
+    <t>Palo Alto, California</t>
+  </si>
+  <si>
+    <t>Amit Oza</t>
+  </si>
+  <si>
+    <t>MD, FRCPC, MBBS</t>
+  </si>
+  <si>
+    <t>Princess Margaret Hospital University of Toronto</t>
+  </si>
+  <si>
+    <t>Anders Österborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karolinska Hospital    </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/osterborg.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=894a8fe5-da66-4cf5-bec3-773b8fc46990</t>
+  </si>
+  <si>
+    <t>Eduardo  Olavarria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital De Navarra </t>
+  </si>
+  <si>
+    <t>Pamplona, Spain</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/olivarria2.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0d7e386b-e515-4d33-b537-3ff6bbc66c27</t>
+  </si>
+  <si>
+    <t>Enrique Ocio</t>
+  </si>
+  <si>
+    <t>University of Salamanca</t>
+  </si>
+  <si>
+    <t>Franco Odicino</t>
+  </si>
+  <si>
+    <t>Università degli Studi di Brescia, II Ginecologia ed Ostetricia</t>
+  </si>
+  <si>
+    <t>Brescia, Italy</t>
+  </si>
+  <si>
+    <t>Joseph O’Donoghue</t>
+  </si>
+  <si>
+    <t>Joyce O'Shaughnessy</t>
+  </si>
+  <si>
+    <t>US Oncology Baylor Sammons Cancer Center</t>
+  </si>
+  <si>
+    <t>Oliver Ottmann</t>
+  </si>
+  <si>
+    <t>Goethe University</t>
+  </si>
+  <si>
+    <t>Owen O’Connor</t>
+  </si>
+  <si>
+    <t>Columbia University Medical Center
+The New York Presbyterian Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/oconnor.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4f56ff46-a7f1-481b-8c74-d2c2dc9a9dda</t>
+  </si>
+  <si>
+    <t>Pia Österlund</t>
+  </si>
+  <si>
+    <t>Robert Z Orlowski</t>
+  </si>
+  <si>
+    <t>Ruth ORegan</t>
+  </si>
+  <si>
+    <t>Stephane Oudard</t>
+  </si>
+  <si>
+    <t>Georges Pompidou Hospital</t>
+  </si>
+  <si>
+    <t>Steven O'Day</t>
+  </si>
+  <si>
+    <t>The Angeles Clinic and Research Institute</t>
+  </si>
+  <si>
+    <t>Santa Monica, California</t>
+  </si>
+  <si>
+    <t>Susan O'Brien</t>
+  </si>
+  <si>
+    <t>UC Irvine Health 
+Chao Family Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Susanne Osanto</t>
+  </si>
+  <si>
+    <t>Leiden University Medical Center</t>
+  </si>
+  <si>
+    <t>Leiden, the Netherlands</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/osanto.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e50ab5ad-f475-4ef7-9e2e-7e78fd4ac7c8</t>
+  </si>
+  <si>
+    <t>Taofeek Owonikoko</t>
+  </si>
+  <si>
+    <t>Aleix Prat</t>
+  </si>
+  <si>
+    <t>Andrés Poveda</t>
+  </si>
+  <si>
+    <t>Fundacion Instituto Valenciano de Oncologia</t>
+  </si>
+  <si>
+    <t>Animesh Pardanani</t>
+  </si>
+  <si>
+    <t>Antonio Palumbo</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/palumbo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=aa511e33-587d-41ec-86a4-08a6c9491989</t>
+  </si>
+  <si>
+    <t>Barbara Pro</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/pro.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=851f4a9a-267a-4468-a826-c9c71911aaa7</t>
+  </si>
+  <si>
+    <t>Bojana Pajk</t>
+  </si>
+  <si>
+    <t>The Hague, the Netherlands</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/pajk.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=5d17c90a-748c-4291-b0d2-87291480bab0</t>
+  </si>
+  <si>
+    <t>Brigitte Bressac-de Paillerets</t>
+  </si>
+  <si>
+    <t>Villejuif/Paris-Sud, France</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Paillerets.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2cac0050-1e5d-4edb-8d91-10861ea82b54</t>
+  </si>
+  <si>
+    <t>Camillo Porta</t>
+  </si>
+  <si>
+    <t>IRCCS San Matteo University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/porta.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=53c6e267-496d-4586-9dfb-da2ff14ec862</t>
+  </si>
+  <si>
+    <t>Charlotte Pawlyn</t>
+  </si>
+  <si>
+    <t>Institute of Cancer Research</t>
+  </si>
+  <si>
+    <t>Ching-Hon Pui</t>
+  </si>
+  <si>
+    <t>St. Jude Children’s Research Hospital
+University of Tennessee Health Science Center</t>
+  </si>
+  <si>
+    <t>Chris Parker</t>
+  </si>
+  <si>
+    <t>Sutton, Surrey, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/parker.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8a63ab8d-79ce-4b5a-bf1c-dc1e8c6998cc</t>
+  </si>
+  <si>
+    <t>Cornelis J. A. Punt</t>
+  </si>
+  <si>
+    <t>Academic Medical Center,
+University of Amsterdam</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Punt.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=63dd0195-61ea-4c71-bd46-31a5f9a07eaa</t>
+  </si>
+  <si>
+    <t>Daniel Petrylak</t>
+  </si>
+  <si>
+    <t>Yale University Cancer Center</t>
+  </si>
+  <si>
+    <t>David L. Porter, MD</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania Medical Center</t>
+  </si>
+  <si>
+    <t>Dennis Priebat</t>
+  </si>
+  <si>
+    <t>Washington Hospital Center</t>
+  </si>
+  <si>
+    <t>Drew Provan</t>
+  </si>
+  <si>
+    <t>MD, FRCP, FRCPath</t>
+  </si>
+  <si>
+    <t>The Royal London Hospital</t>
+  </si>
+  <si>
+    <t>Dudley Pennell</t>
+  </si>
+  <si>
+    <t>Edith A. Perez</t>
+  </si>
+  <si>
+    <t>Jacksonville, Florida, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/perez.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=ab4dc6b8-6b05-470d-9cd6-fc9747fd4fae</t>
+  </si>
+  <si>
+    <t>Eric Pujade-Lauraine</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Hôtel-Dieu</t>
+  </si>
+  <si>
+    <t>Francesco Passamonti</t>
+  </si>
+  <si>
+    <t>Ospedale di Circolo e Fondazione Macchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varese, Italy </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/passamonti.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8dfe2cea-1594-46ae-aa8d-458c857ae94e</t>
+  </si>
+  <si>
+    <t>Furio Pacini</t>
+  </si>
+  <si>
+    <t>Azienda Ospedaliera Universitaria Senese</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/pacini.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d949e684-c871-40e3-9375-c8c73627ee59</t>
+  </si>
+  <si>
+    <t>Jacobus Pfisterer</t>
+  </si>
+  <si>
+    <t>Gynecologic Oncology Center Kiel</t>
+  </si>
+  <si>
+    <t>Jaime Prat</t>
+  </si>
+  <si>
+    <t>Hospital de la Santa Creu i Sant Pau</t>
+  </si>
+  <si>
+    <t>James Perry</t>
+  </si>
+  <si>
+    <t>Sunnybrook Health Sciences Center
+University of Toronto</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/perry.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d0c19b72-5caa-43f9-bc43-96ab269b6137</t>
+  </si>
+  <si>
+    <t>Jan Persson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Javier Pinilla</t>
+  </si>
+  <si>
+    <t>John Pippen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Oncology Baylor Sammons Cancer Center </t>
+  </si>
+  <si>
+    <t>Jose Maria Viéitez de Prado</t>
+  </si>
+  <si>
+    <t>Hospital Universitario Central de Asturias</t>
+  </si>
+  <si>
+    <t>Oviedo, Spain</t>
+  </si>
+  <si>
+    <t>Luis Paz-Ares</t>
+  </si>
+  <si>
+    <t>Hospital Universitario Virgen del Rocío</t>
+  </si>
+  <si>
+    <t>Seville, Spain</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Paz-Ares.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d5e3251d-dc75-4d0b-8b36-1ae234657512</t>
+  </si>
+  <si>
+    <t>Marc Peeters</t>
+  </si>
+  <si>
+    <t>Antwerp University Hospital</t>
+  </si>
+  <si>
+    <t>Antwerpen, Belgium</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/peeters.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7c95a832-5164-43ce-9d4e-c447ee73a193</t>
+  </si>
+  <si>
+    <t>Marianne Pavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charité Hospital </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Pavel.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2ff0f766-931a-4e94-a821-cf19a6599656</t>
+  </si>
+  <si>
+    <t>Marshall Posner</t>
+  </si>
+  <si>
+    <t>Martine Piccart</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/piccart.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2b26f5c3-58ab-4d9f-9922-6b448ac7dca1</t>
+  </si>
+  <si>
+    <t>Maurice Pérol</t>
+  </si>
+  <si>
+    <t>Cancer Research Center of Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyon, France </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/perol.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c099608b-2896-4cd4-9936-599c82d19e87</t>
+  </si>
+  <si>
+    <t>Michael Prados</t>
+  </si>
+  <si>
+    <t>Oliver Press</t>
+  </si>
+  <si>
+    <t>Fred Hutchinson Cancer Research Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seattle, Washington, United States </t>
+  </si>
+  <si>
+    <t>Paolo Pronzato</t>
+  </si>
+  <si>
+    <t>S. Andrea Hospital</t>
+  </si>
+  <si>
+    <t>La Spezia, Italy</t>
+  </si>
+  <si>
+    <t>Ulrich-Frank Pape</t>
+  </si>
+  <si>
+    <t>Pier Paolo Piccaluga</t>
+  </si>
+  <si>
+    <t>Pieter Postmus</t>
+  </si>
+  <si>
+    <t>Free University Medical Center</t>
+  </si>
+  <si>
+    <t>Amsterdam, The Netherlands</t>
+  </si>
+  <si>
+    <t>Rathi Pillai</t>
+  </si>
+  <si>
+    <t>Richard A. Peterson</t>
+  </si>
+  <si>
+    <t>Regions Hospital</t>
+  </si>
+  <si>
+    <t>St Paul, Minnesota</t>
+  </si>
+  <si>
+    <t>Rob Pieters</t>
+  </si>
+  <si>
+    <t>Princess Máxima Center for Pediatric Oncology</t>
+  </si>
+  <si>
+    <t>Robert Pirker</t>
+  </si>
+  <si>
+    <t>Roman Perez-Soler</t>
+  </si>
+  <si>
+    <t>Montefiore Medical Center</t>
+  </si>
+  <si>
+    <t>Bronx, New York, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/perez-soler.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f06bbd63-6596-486b-98d7-c89636b6b1f3</t>
+  </si>
+  <si>
+    <t>Ronald Paquette</t>
+  </si>
+  <si>
+    <t>Jonsson Comprehensive Cancer Center at UCLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles, California </t>
+  </si>
+  <si>
+    <t>Ruth Pettengell</t>
+  </si>
+  <si>
+    <t>University of London</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/pettengal.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=deb22cf4-6ab1-4bf6-9e6d-65f457c73c79</t>
+  </si>
+  <si>
+    <t>Sandro Pignata</t>
+  </si>
+  <si>
+    <t>Sergio Pecorelli</t>
+  </si>
+  <si>
+    <t>Solange Peters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multidisciplinary Oncology Center Lausanne </t>
+  </si>
+  <si>
+    <t>Lausanne, Switzerland</t>
+  </si>
+  <si>
+    <t>Stefano Pileri</t>
+  </si>
+  <si>
+    <t>Thomas Powles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Bartholomew’s Hospital </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Powles.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=fc1ddd18-cb4f-4da7-b490-a546ec5e202f</t>
+  </si>
+  <si>
+    <t>Torben Plesner</t>
+  </si>
+  <si>
+    <t>University of Southern Denmark</t>
+  </si>
+  <si>
+    <t>Ugo Pastorino</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/pape.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=3645af7e-00cd-4d0b-a142-25b0e3092742</t>
+  </si>
+  <si>
+    <t>Uwe Platzbecker</t>
+  </si>
+  <si>
+    <t>Xavier Pivot</t>
+  </si>
+  <si>
+    <t>University Hospital of Besançon</t>
+  </si>
+  <si>
+    <t>Besançon, France</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Pivot.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=bd81aff5-9357-4f7e-ad3d-37816fb8cef1</t>
+  </si>
+  <si>
+    <t>Alfonso Quintas-Cardama</t>
+  </si>
+  <si>
+    <t>David Quinn</t>
+  </si>
+  <si>
+    <t>MBBS, PhD, FRACP</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>Adan Rios, MD</t>
+  </si>
+  <si>
+    <t>The University of Texas Medical School</t>
+  </si>
+  <si>
+    <t>Alain Ravaud</t>
+  </si>
+  <si>
+    <t>Hospital Saint Andre CHU</t>
+  </si>
+  <si>
+    <t>Alastair W. S. Ritchie</t>
+  </si>
+  <si>
+    <t>Medical Research Council</t>
+  </si>
+  <si>
+    <t>Alberto Rocci</t>
+  </si>
+  <si>
+    <t>Alexander Radbruch</t>
+  </si>
+  <si>
+    <t>University of Heidelberg</t>
+  </si>
+  <si>
+    <t>MD, JD</t>
+  </si>
+  <si>
+    <t>Heidelberg, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/radbruch.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7b8aa6c5-e4a8-442b-bbb5-12aa1437898f</t>
+  </si>
+  <si>
+    <t>Álvaro Rodríguez</t>
+  </si>
+  <si>
+    <t>Antoni Ribas</t>
+  </si>
+  <si>
+    <t>University of California Los Angeles</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ribas.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=3ea3440d-5e98-4f04-a1f9-7a7819d98928</t>
+  </si>
+  <si>
+    <t>Barry Rosen</t>
+  </si>
+  <si>
+    <t>MD, FRCSC</t>
+  </si>
+  <si>
+    <t>University of Toronto
+Ontario Cancer Institute</t>
+  </si>
+  <si>
+    <t>Brian I. Rini</t>
+  </si>
+  <si>
+    <t>Cleveland Clinic Taussig Cancer Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/rini.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2820dcd7-51f4-4621-93a8-6aec3b62b1cf</t>
+  </si>
+  <si>
+    <t>Carmelo Rizzari</t>
+  </si>
+  <si>
+    <t>University of Milan
+Hospital of Monza</t>
+  </si>
+  <si>
+    <t>Caroline Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer Institute Gustave Roussy </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/RobertRobert.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=fd2fa298-318d-45e2-9e2b-62f0953f3f09</t>
+  </si>
+  <si>
+    <t>Carsten Rose</t>
+  </si>
+  <si>
+    <t>Lund University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/rose.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a483b5ab-1e3e-464d-b161-71dad19e7533</t>
+  </si>
+  <si>
+    <t>Cesar Rodríguez</t>
+  </si>
+  <si>
+    <t>Charles Ryan</t>
+  </si>
+  <si>
+    <t>UCSF School of Medicine</t>
+  </si>
+  <si>
+    <t>Christy Russell</t>
+  </si>
+  <si>
+    <t>Keck University School of Medicine
+University of Southern California</t>
+  </si>
+  <si>
+    <t>Daniel Rea</t>
+  </si>
+  <si>
+    <t>David Rizzieri</t>
+  </si>
+  <si>
+    <t>David Ryan</t>
+  </si>
+  <si>
+    <t>Massachusetts General Hospital</t>
+  </si>
+  <si>
+    <t>Boston, MA, United States</t>
+  </si>
+  <si>
+    <t>Delphine Rea</t>
+  </si>
+  <si>
+    <t>Hôpital Saint Louis</t>
+  </si>
+  <si>
+    <t>Dirk Richel</t>
+  </si>
+  <si>
+    <t>Academic Medical Center
+University of Amsterdam</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/richel_dirk.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=be916d93-e1bd-420e-932d-4f96bc5ad19d</t>
+  </si>
+  <si>
+    <t>Edward Rafalski</t>
+  </si>
+  <si>
+    <t>Methodist Le Bonheur Healthcare
+University of Memphis</t>
+  </si>
+  <si>
+    <t>Gail J Roboz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weill Medical College of Cornell University  </t>
+  </si>
+  <si>
+    <t>Gianantonio Rosti</t>
+  </si>
+  <si>
+    <t>Gordon JS Rustin</t>
+  </si>
+  <si>
+    <t>The Clocktower Mount Vernon Hospital</t>
+  </si>
+  <si>
+    <t>Northwood, United Kingdom</t>
+  </si>
+  <si>
+    <t>Hope Rugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco, California, United States </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Rugo.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1cd9fb40-f12a-4432-8fb0-ee9dd6d1f283</t>
+  </si>
+  <si>
+    <t>Isabelle Ray-Coquard</t>
+  </si>
+  <si>
+    <t>James Rubenstein</t>
+  </si>
+  <si>
+    <t>Helen Diller Family Comprehensive Cancer Center 
+University of California San Francisco</t>
+  </si>
+  <si>
+    <t>Jeffrey Raizer</t>
+  </si>
+  <si>
+    <t>Northwestern University
+Feinberg School of Medicine</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/raizer.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=fcf73acb-86ce-4585-a4c3-b2e22c062d23</t>
+  </si>
+  <si>
+    <t>Jerald Radich</t>
+  </si>
+  <si>
+    <t>Kerstin Rhiem</t>
+  </si>
+  <si>
+    <t>University of Cologne</t>
+  </si>
+  <si>
+    <t>Laura Rosinol</t>
+  </si>
+  <si>
+    <t>Leigh Revers</t>
+  </si>
+  <si>
+    <t>MA, DPhil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Toronto </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/revers.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b872c64d-15c6-4aed-84e7-1273601a5ab9</t>
+  </si>
+  <si>
+    <t>Luis Raez</t>
+  </si>
+  <si>
+    <t>Lukas Rob</t>
+  </si>
+  <si>
+    <t>Charles University</t>
+  </si>
+  <si>
+    <t>Prague, Czech Republic</t>
+  </si>
+  <si>
+    <t>Maria Reig</t>
+  </si>
+  <si>
+    <t>Barcelona Clinic Liver Cancer Group
+University of Barcelona</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Reig.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b697c024-90c1-4200-a7fc-0e4eae3ef157</t>
+  </si>
+  <si>
+    <t>Martin Reck</t>
+  </si>
+  <si>
+    <t>Hospital Grosshansdorf</t>
+  </si>
+  <si>
+    <t>Grosshansdorf, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Reck.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=37c3739f-0a5d-466c-827c-01ea27451b62</t>
+  </si>
+  <si>
+    <t>Mathias Rummel</t>
+  </si>
+  <si>
+    <t>University of Giessen</t>
+  </si>
+  <si>
+    <t>Giessen, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Rummel.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=eaa1a79f-55ca-4b59-a357-25fc9072656c</t>
+  </si>
+  <si>
+    <t>Merrick Ross</t>
+  </si>
+  <si>
+    <t>Michele Reni</t>
+  </si>
+  <si>
+    <t>San Raffaele Scientific Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/reni.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=187539bf-fd23-4475-84cf-4c6e6c6e15b0</t>
+  </si>
+  <si>
+    <t>Naiyer Rizvi</t>
+  </si>
+  <si>
+    <t>Memorial Sloan Kettering Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/rizvi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=3b93d140-4c3e-4edd-be5f-a95cad61cfc7</t>
+  </si>
+  <si>
+    <t>Nicholas Reed</t>
+  </si>
+  <si>
+    <t>Beatson Oncology Centre
+Gartnavel General Hospital</t>
+  </si>
+  <si>
+    <t>Glasgow, United Kingdom</t>
+  </si>
+  <si>
+    <t>Paul Richardson</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Richardson.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=31a44f1d-5375-4fff-947e-84ccce16fbe5</t>
+  </si>
+  <si>
+    <t>Paul Ruff</t>
+  </si>
+  <si>
+    <t>MD, FCP, MBBCH, MMed</t>
+  </si>
+  <si>
+    <t>University of Witwatersrand</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/paul_ruff.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=21d2a899-bc17-4b33-8692-e7edcea3569e</t>
+  </si>
+  <si>
+    <t>Peter Reichardt</t>
+  </si>
+  <si>
+    <t>HELIOS Klinikum Bad Saarow</t>
+  </si>
+  <si>
+    <t>Bad Saarow, Germany</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/reichardt.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=1d6b65d6-2d06-47c3-9300-b7a874d07b59</t>
+  </si>
+  <si>
+    <t>Piotr Rutkowski</t>
+  </si>
+  <si>
+    <t>Maria Sklodowska-Curie Memorial Cancer Center</t>
+  </si>
+  <si>
+    <t>Warsaw, Poland</t>
+  </si>
+  <si>
+    <t>Ramesh Ramanathan</t>
+  </si>
+  <si>
+    <t>Virginia G. Piper Cancer Center
+Translational Genomics Research Institute</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ramanathan.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=df94dee2-76b4-46b4-922e-926701499da8</t>
+  </si>
+  <si>
+    <t>Richard Riedel</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Riedel.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=74fa5aa2-5de6-4cde-81b0-e61c89924d4f</t>
+  </si>
+  <si>
+    <t>S. Vincent Rajkumar</t>
+  </si>
+  <si>
+    <t>Simon Rule</t>
+  </si>
+  <si>
+    <t>Derriford Hospital</t>
+  </si>
+  <si>
+    <t>Plymouth, United Kingdom</t>
+  </si>
+  <si>
+    <t>Steven Rosen</t>
+  </si>
+  <si>
+    <t>Suresh Ramalingam</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ramalingam.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c9b18de3-153f-4c63-9fa1-7360f849df7d</t>
+  </si>
+  <si>
+    <t>Tadeusz Robak</t>
+  </si>
+  <si>
+    <t>Medical University of Lodz</t>
+  </si>
+  <si>
+    <t>Lodz, Poland</t>
+  </si>
+  <si>
+    <t>Tony Reid</t>
+  </si>
+  <si>
+    <t>University of California, San Diego</t>
+  </si>
+  <si>
+    <t>San Diego, California</t>
+  </si>
+  <si>
+    <t>Umberto Ricardi</t>
+  </si>
+  <si>
+    <t>University of Turin, School of Medicine</t>
+  </si>
+  <si>
+    <t>Wendell Rosse</t>
+  </si>
+  <si>
+    <t>Zvi Ram</t>
+  </si>
+  <si>
+    <t>Tel Aviv Medical Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Ram_photo_093114.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=6a785e0b-fa4b-4252-8617-c8125d94d2da</t>
+  </si>
+  <si>
+    <t>Ali Taher</t>
+  </si>
+  <si>
+    <t>MD, FRCP MD</t>
+  </si>
+  <si>
+    <t>American College of Beirut Medical Center</t>
+  </si>
+  <si>
+    <t>Beruit, Lebanon</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Taher.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=bff16c47-0367-46fb-818e-783b8b1a1a29</t>
+  </si>
+  <si>
+    <t>Ayalew Tefferi</t>
+  </si>
+  <si>
+    <t>Beat J.K. Thürlimann</t>
+  </si>
+  <si>
+    <t>Kantonsspital St. Gallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Gallen, Switzerland </t>
+  </si>
+  <si>
+    <t>Bertrand Tombal</t>
+  </si>
+  <si>
+    <t>Cliniques Universitaires Saint-Luc</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/tombal.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=937cbb5a-49e6-4c25-88e9-9db3ce157764</t>
+  </si>
+  <si>
+    <t>Christophe Tournigand</t>
+  </si>
+  <si>
+    <t>Hospital Saint Antoine</t>
+  </si>
+  <si>
+    <t>Christopher Twelves</t>
+  </si>
+  <si>
+    <t>University of Leeds and St James University Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/twelves.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=2797ce5a-5330-452e-acbc-7e0081ad24c0</t>
+  </si>
+  <si>
+    <t>David Telio</t>
+  </si>
+  <si>
+    <t>British Columbia Cancer Agency</t>
+  </si>
+  <si>
+    <t>David Tran</t>
+  </si>
+  <si>
+    <t>Evangelos Terpos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Athens </t>
+  </si>
+  <si>
+    <t>Gillian Thomas</t>
+  </si>
+  <si>
+    <t>Imad Tabbara</t>
+  </si>
+  <si>
+    <t>George Washington University</t>
+  </si>
+  <si>
+    <t>James Tate Thigpen</t>
+  </si>
+  <si>
+    <t>University of Mississippi School of Medicine</t>
+  </si>
+  <si>
+    <t>James Tumlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Tennessee College of Medicine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chattanooga, Tennessee </t>
+  </si>
+  <si>
+    <t>Jill Tichy</t>
+  </si>
+  <si>
+    <t>Josep Tabernero</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Tabernero.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=697dcaa7-439e-4c02-b3bd-eb61a6189377</t>
+  </si>
+  <si>
+    <t>Krishnansu S. Tewari</t>
+  </si>
+  <si>
+    <t>University of California Irvine 
+Chao Family Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Orange, California, United States</t>
+  </si>
+  <si>
+    <t>Marc Thill</t>
+  </si>
+  <si>
+    <t>Agaplesion Markus Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/mark_thill.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=45d27d10-9525-444f-86be-16a6d0e7c4bb</t>
+  </si>
+  <si>
+    <t>Marek Trneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles University Hospital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prague, Czech Republic </t>
+  </si>
+  <si>
+    <t>Margaret Tempero</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/tempero.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d99c0c5e-4004-41e1-8663-3a28966f14ad</t>
+  </si>
+  <si>
+    <t>Masakazu Toi</t>
+  </si>
+  <si>
+    <t>Kyoto University Hospital</t>
+  </si>
+  <si>
+    <t>Kyoto, Japan</t>
+  </si>
+  <si>
+    <t>Mylin Torres</t>
+  </si>
+  <si>
+    <t>Nicholas Turner</t>
+  </si>
+  <si>
+    <t>MA, MRCP, PhD</t>
+  </si>
+  <si>
+    <t>Royal Marsden Hospital
+Institute of Cancer Research</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/turner.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d5d6d85f-bbfb-4578-a05a-90f67e292344</t>
+  </si>
+  <si>
+    <t>Nick Thatcher</t>
+  </si>
+  <si>
+    <t>MRCP, PhD, FRCP</t>
+  </si>
+  <si>
+    <t>The Christie Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester, United Kingdom </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hatcher.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=e9436a0a-141c-49b8-814e-0bbdfcb9ec30</t>
+  </si>
+  <si>
+    <t>Sabine Tejpar</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Tejpar.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9d070e65-e8cc-40ac-80c2-71a5ce8f6047</t>
+  </si>
+  <si>
+    <t>Sara Tolaney</t>
+  </si>
+  <si>
+    <t>Shou-Ching Tang</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Steven Treon</t>
+  </si>
+  <si>
+    <t>Boston, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Treon.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8ed7b498-2a75-40d7-8903-1c65e74355ac</t>
+  </si>
+  <si>
+    <t>Thomas Tuting</t>
+  </si>
+  <si>
+    <t>University Hospital Bonn</t>
+  </si>
+  <si>
+    <t>Bonn, Germany</t>
+  </si>
+  <si>
+    <t>Vivianne Tjan-Heijnen</t>
+  </si>
+  <si>
+    <t>Maastricht University Medical Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Tjan-Heijnen.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7efc295a-89f2-4dc9-9c25-d2d40ede2c2c</t>
+  </si>
+  <si>
+    <t>Hirotsugu Uemura</t>
+  </si>
+  <si>
+    <t>Kinki University School of Medicine</t>
+  </si>
+  <si>
+    <t>Osaka, Japan</t>
+  </si>
+  <si>
+    <t>Michael Untch</t>
+  </si>
+  <si>
+    <t>HELIOS Klinikum Berlin-Buch</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/untch_greybox.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a9736e89-2ef6-4717-b1cf-a197942914ab</t>
+  </si>
+  <si>
+    <t>Alan Venook</t>
+  </si>
+  <si>
+    <t>University of California, San Francisco
+Hellen Diller Family Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/venook.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a82c059d-daf7-4f7d-bb66-97dc2b4947ed</t>
+  </si>
+  <si>
+    <t>Alessandro M. Vannucchi</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Vannucchi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=6e7ee1de-c272-4045-9c0f-139cece7b30a</t>
+  </si>
+  <si>
+    <t>Alfredo Voloschin</t>
+  </si>
+  <si>
+    <t>Charles Vogel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer Institute West </t>
+  </si>
+  <si>
+    <t>Cornelis van de Velde</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Elliot Vichinsky</t>
+  </si>
+  <si>
+    <t>Children's Hospital &amp; Research Center Oakland</t>
+  </si>
+  <si>
+    <t>Oakland, California, United States</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Vichinsky.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=69eaf019-f8a7-43ea-9535-ac607fc12a98</t>
+  </si>
+  <si>
+    <t>Eric Vallieres</t>
+  </si>
+  <si>
+    <t>Swedish Cancer Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital Gasthuisberg </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Cutsem.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d6c70bf7-f628-4440-bbae-af42af9a13e9</t>
+  </si>
+  <si>
+    <t>Giuseppe Viale</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/viale.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=8021f616-4105-4226-8972-1550c1b96cf5</t>
+  </si>
+  <si>
+    <t>Ignace Vergote</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/vergote.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b061bc03-40e3-45df-a638-6afa78ab0d81</t>
+  </si>
+  <si>
+    <t>Jan P. Van Meerbeeck</t>
+  </si>
+  <si>
+    <t>University Hospital Ghent</t>
+  </si>
+  <si>
+    <t>Ghent, Belgium</t>
+  </si>
+  <si>
+    <t>Johan Vansteenkiste</t>
+  </si>
+  <si>
+    <t>University Hospitals Leuven Gasthuisberg</t>
+  </si>
+  <si>
+    <t>Jose Valerio</t>
+  </si>
+  <si>
+    <t>Weston, Florida</t>
+  </si>
+  <si>
+    <t>Julie Vose</t>
+  </si>
+  <si>
+    <t>MD, MBA</t>
+  </si>
+  <si>
+    <t>Luis Villela</t>
+  </si>
+  <si>
+    <t>School of Medicine and Health Science at Tecnologico de Monterrey</t>
+  </si>
+  <si>
+    <t>Monterrey, Mexico</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/villela.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4e4b2037-3ffa-482a-b048-4266166b6cde</t>
+  </si>
+  <si>
+    <t>Marco Volante</t>
+  </si>
+  <si>
+    <t>University of Turin San Luigi Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Volante.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=0a3fee84-01c1-4c7e-8502-384ca2d8b042</t>
+  </si>
+  <si>
+    <t>Martin van den Bent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel den Hoed Cancer Center 
+Erasmus Medical Center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotterdam, the Netherlands </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/bent.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9f34f696-043e-47c3-8c1c-105a5b608449</t>
+  </si>
+  <si>
+    <t>Michael Verneris</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>Michael Weller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital of Zurich </t>
+  </si>
+  <si>
+    <t>Michele Del Vecchio</t>
+  </si>
+  <si>
+    <t>Fondazione IRCSS Istituto Nazionale dei Tumori</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Del%20Vecchio.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=149fc41b-a31b-4ea0-a213-20459d76db57</t>
+  </si>
+  <si>
+    <t>Parameswaran Venugopal</t>
+  </si>
+  <si>
+    <t>Paul Van Houtte</t>
+  </si>
+  <si>
+    <t>Peter Valent</t>
+  </si>
+  <si>
+    <t>Peter Vaupel</t>
+  </si>
+  <si>
+    <t>University of Mainz</t>
+  </si>
+  <si>
+    <t>Ravi Vij</t>
+  </si>
+  <si>
+    <t>Srdan Verstovsek</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Verstovsek.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=b74e8c14-df6f-4b2c-9c6d-7fcb8112135b</t>
+  </si>
+  <si>
+    <t>Stephan Vom Dahl</t>
+  </si>
+  <si>
+    <t>St Franziskus-Hospital</t>
+  </si>
+  <si>
+    <t>Steven Vogl</t>
+  </si>
+  <si>
+    <t>Bronx, New York</t>
+  </si>
+  <si>
+    <t>Sunil Verma</t>
+  </si>
+  <si>
+    <t>MD, MSEd, FRCPC</t>
+  </si>
+  <si>
+    <t>Toronto Sunnybrook 
+Regional Cancer Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/verma.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=53ff7d0b-0509-489f-bb09-cb27bd9d9d09</t>
+  </si>
+  <si>
+    <t>Umberto Vitolo</t>
+  </si>
+  <si>
+    <t>San Giovanni Battista Hospital</t>
+  </si>
+  <si>
+    <t>Vicente Valero</t>
+  </si>
+  <si>
+    <t>Alexi Wright</t>
+  </si>
+  <si>
+    <t>Anders Waage</t>
+  </si>
+  <si>
+    <t>University Hospital Trondheim</t>
+  </si>
+  <si>
+    <t>Trondheim, Norway</t>
+  </si>
+  <si>
+    <t>Edmund Waller</t>
+  </si>
+  <si>
+    <t>Eric D. Whitman</t>
+  </si>
+  <si>
+    <t>Atlantic Melanoma Center</t>
+  </si>
+  <si>
+    <t>Morristown, New Jersey</t>
+  </si>
+  <si>
+    <t>Eric T. Wong</t>
+  </si>
+  <si>
+    <t>Beth Israel Deaconess Medical Center
+Harvard Medical School</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Wong.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=75c3f13c-eafe-4d07-be9f-34ebef840851</t>
+  </si>
+  <si>
+    <t>Hansjochen Wilke</t>
+  </si>
+  <si>
+    <t>Kliniken Essen Mitte Center of Palliative Care</t>
+  </si>
+  <si>
+    <t>Heather Wakelee</t>
+  </si>
+  <si>
+    <t>James Whitlock</t>
+  </si>
+  <si>
+    <t>The Hospital for Sick Children
+University of Toronto</t>
+  </si>
+  <si>
+    <t>Jedd D. Wolchok</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Wolchok.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=c5a59ba7-d728-4741-971a-4704f7857d16</t>
+  </si>
+  <si>
+    <t>Jeffrey S. Weber</t>
+  </si>
+  <si>
+    <t>H. Lee Moffitt Cancer Center &amp; Research Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tampa, Florida, United States </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/weber.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a2772e82-f831-4c42-9e78-05c7707993b6</t>
+  </si>
+  <si>
+    <t>Jiong Wu</t>
+  </si>
+  <si>
+    <t>Jürgen Wolf</t>
+  </si>
+  <si>
+    <t>Kathleen Mary Wesa</t>
+  </si>
+  <si>
+    <t>Katja Weisel</t>
+  </si>
+  <si>
+    <t>University of Tuebingen</t>
+  </si>
+  <si>
+    <t>Tuebingen, Germany</t>
+  </si>
+  <si>
+    <t>Luciano Wannesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellinzona, Switzerland </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Wannesson.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=13ce600b-fa72-4e8a-b46c-bcd31e0f3171</t>
+  </si>
+  <si>
+    <t>Matthias Weber</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/matthias-weber.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=9971e6da-0286-4870-8e1a-0c03e2a53f83</t>
+  </si>
+  <si>
+    <t>Meenu Wadhwa</t>
+  </si>
+  <si>
+    <t>National Institute for Biological Standards and Control</t>
+  </si>
+  <si>
+    <t>Hertfordshire, United Kingdom</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Wadhwa.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=7907d8ef-f5b0-4faf-bf35-81de8a412486</t>
+  </si>
+  <si>
+    <t>Meir Wetzler</t>
+  </si>
+  <si>
+    <t>Buffalo, New York</t>
+  </si>
+  <si>
+    <t>Michael Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Hospital of Zürich </t>
+  </si>
+  <si>
+    <t>Zürich, Switzerland</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/weller.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=a15b274c-c4d3-4278-9510-83a1b97e80db</t>
+  </si>
+  <si>
+    <t>Norman Wolmark</t>
+  </si>
+  <si>
+    <t>Robert Whitehead</t>
+  </si>
+  <si>
+    <t>Nevada Cancer Institute</t>
+  </si>
+  <si>
+    <t>Stan Winokur</t>
+  </si>
+  <si>
+    <t>Winokur Consulting Group</t>
+  </si>
+  <si>
+    <t>West Palm Beach, FL, USA</t>
+  </si>
+  <si>
+    <t>Stephanie Wagner</t>
+  </si>
+  <si>
+    <t>IU School of Medicine</t>
+  </si>
+  <si>
+    <t>Indianapolis, Indiana</t>
+  </si>
+  <si>
+    <t>Thomas Wiegal</t>
+  </si>
+  <si>
+    <t>University of Ulm Hospital</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/wiegal.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=97526b36-648b-4002-b643-2dfa1c548481</t>
+  </si>
+  <si>
+    <t>Tom Samuel Waddell</t>
+  </si>
+  <si>
+    <t>MBChB, MRCP</t>
+  </si>
+  <si>
+    <t>The Royal Marsden Hospital NHS Foundation Trust</t>
+  </si>
+  <si>
+    <t>Toru Watanabe</t>
+  </si>
+  <si>
+    <t>Hamamatsu Oncology Center</t>
+  </si>
+  <si>
+    <t>Hamamatsu, Japan</t>
+  </si>
+  <si>
+    <t>Walter Weder</t>
+  </si>
+  <si>
+    <t>William Wierda</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Wierda.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=4bcc0e07-4768-4489-bde3-98a48946fbb3</t>
+  </si>
+  <si>
+    <t>Elliott Winton</t>
+  </si>
+  <si>
+    <t>Wolfgang Wick</t>
+  </si>
+  <si>
+    <t>University of Heidelberg and German Cancer Research Center</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Wick.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f0d9e47f-6ae0-4ff4-81fd-8cf778a1107f</t>
+  </si>
+  <si>
+    <t>Zev Wainberg</t>
+  </si>
+  <si>
+    <t>University of California – Los Angeles Jonsson Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Binghe Xu</t>
+  </si>
+  <si>
+    <t>Anas Younes</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Younes.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=d6563547-6d1a-467d-a39e-d0d95fd46460</t>
+  </si>
+  <si>
+    <t>Denise Yardley</t>
+  </si>
+  <si>
+    <t>Sarah Cannon Research Institute
+Tennessee Oncology</t>
+  </si>
+  <si>
+    <t>James C. Yao</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Yao.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=18868c32-ffd1-47c3-a769-c0a09b56abae</t>
+  </si>
+  <si>
+    <t>Zihao Yu</t>
+  </si>
+  <si>
+    <t>Amelia Zelnak</t>
+  </si>
+  <si>
+    <t>Andrew Zelenetz</t>
+  </si>
+  <si>
+    <t>Andrew X. Zhu</t>
+  </si>
+  <si>
+    <t>Ate G.J. van der Zee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groningen, the Netherlands </t>
+  </si>
+  <si>
+    <t>Baoning Zhang</t>
+  </si>
+  <si>
+    <t>Caicun Zhou</t>
+  </si>
+  <si>
+    <t>Medical School of Tongji University</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/Zhou.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=090b585b-c11e-42ae-9b92-b6ff001a0fc4</t>
+  </si>
+  <si>
+    <t>Debbie Zelman</t>
+  </si>
+  <si>
+    <t>Esq, President (Founder)</t>
+  </si>
+  <si>
+    <t>Debbie’s Dream Foundation: 
+Curing Stomach Cancer</t>
+  </si>
+  <si>
+    <t>Davie, Florida, United States</t>
+  </si>
+  <si>
+    <t>Harmine Zonderland</t>
+  </si>
+  <si>
+    <t>Academic Medical Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdam, the Netherlands </t>
+  </si>
+  <si>
+    <t>Herbert Hurwitz, MD, and Yousuf Zafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD, MHS </t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/hurwitz-zafar.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=44075032-32ab-4236-8f7f-3502996d576d</t>
+  </si>
+  <si>
+    <t>Jasmine Zain</t>
+  </si>
+  <si>
+    <t>Jay-Jiguang Zhu</t>
+  </si>
+  <si>
+    <t>University of Texas Health Sciences Center</t>
+  </si>
+  <si>
+    <t>Jessica Zucman-Rossi</t>
+  </si>
+  <si>
+    <t>University Paris Descartes</t>
+  </si>
+  <si>
+    <t>http://development.primeoncology.org/sitecore/shell/Applications/~/media/Images/Expert%20Photo/rossi.ashx?bc=White&amp;db=master&amp;h=128&amp;la=en&amp;thn=1&amp;ts=f6488642-d591-47a4-bed0-6d9841883d57</t>
+  </si>
+  <si>
+    <t>Pier Luigi Zinzani</t>
+  </si>
+  <si>
+    <t>Institute of Hematology and Oncology L. &amp; A. Seragnoli</t>
+  </si>
+  <si>
+    <t>University of Bologna Bologna, Italy</t>
+  </si>
+  <si>
+    <t>Thorsten Zenz</t>
+  </si>
+  <si>
+    <t>Yousuf Zafar</t>
+  </si>
+  <si>
+    <t>MD, MHS</t>
   </si>
 </sst>
 </file>
@@ -4867,16 +6843,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F647"/>
+  <dimension ref="A1:F941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F596" sqref="F596"/>
+    <sheetView tabSelected="1" topLeftCell="A868" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E896" sqref="E896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
@@ -5899,7 +7875,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>207</v>
       </c>
@@ -5983,7 +7959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>222</v>
       </c>
@@ -6315,7 +8291,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>288</v>
       </c>
@@ -7419,7 +9395,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>494</v>
       </c>
@@ -7900,7 +9876,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>580</v>
       </c>
@@ -7959,7 +9935,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>588</v>
       </c>
@@ -8004,7 +9980,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>595</v>
       </c>
@@ -8074,7 +10050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>605</v>
       </c>
@@ -11656,7 +13632,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="468" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B468" s="2" t="s">
         <v>1195</v>
       </c>
@@ -13084,7 +15060,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B567" s="2" t="s">
         <v>1406</v>
       </c>
@@ -13508,264 +15484,4611 @@
       </c>
     </row>
     <row r="597" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B597" s="2" t="s">
+        <v>1472</v>
+      </c>
       <c r="C597" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E597" s="5" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="598" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="2" t="s">
+        <v>1475</v>
+      </c>
       <c r="C598" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D598" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="599" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="2" t="s">
+        <v>1477</v>
+      </c>
       <c r="C599" s="2" t="s">
-        <v>19</v>
+        <v>427</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E599" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="600" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B600" s="2" t="s">
+        <v>1479</v>
+      </c>
       <c r="C600" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D600" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E600" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="601" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B601" s="2" t="s">
+        <v>1480</v>
+      </c>
       <c r="C601" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E601" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="602" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="2" t="s">
+        <v>1482</v>
+      </c>
       <c r="C602" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D602" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E602" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="603" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="2" t="s">
+        <v>1484</v>
+      </c>
       <c r="C603" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E603" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="604" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B604" s="2" t="s">
+        <v>1488</v>
+      </c>
       <c r="C604" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D604" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E604" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="605" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B605" s="2" t="s">
+        <v>1491</v>
+      </c>
       <c r="C605" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E605" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="606" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="2" t="s">
+        <v>1491</v>
+      </c>
       <c r="C606" s="2" t="s">
-        <v>19</v>
+        <v>475</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E606" s="5" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="607" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B607" s="2" t="s">
+        <v>1493</v>
+      </c>
       <c r="C607" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="608" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="2" t="s">
+        <v>1494</v>
+      </c>
       <c r="C608" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" s="2" t="s">
+        <v>1497</v>
+      </c>
       <c r="C609" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E609" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" s="2" t="s">
+        <v>1500</v>
+      </c>
       <c r="C610" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E610" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B611" s="2" t="s">
+        <v>1503</v>
+      </c>
       <c r="C611" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D611" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E611" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B612" s="2" t="s">
+        <v>1504</v>
+      </c>
       <c r="C612" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D612" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" s="2" t="s">
+        <v>1506</v>
+      </c>
       <c r="C613" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E613" s="5" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B614" s="2" t="s">
+        <v>1507</v>
+      </c>
       <c r="C614" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1508</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B615" s="2" t="s">
+        <v>1512</v>
+      </c>
       <c r="C615" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E615" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B616" s="2" t="s">
+        <v>1516</v>
+      </c>
       <c r="C616" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B617" s="2" t="s">
+        <v>1520</v>
+      </c>
       <c r="C617" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E617" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B618" s="2" t="s">
+        <v>1523</v>
+      </c>
       <c r="C618" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D618" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B619" s="2" t="s">
+        <v>1525</v>
+      </c>
       <c r="C619" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D619" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E619" s="5" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B620" s="2" t="s">
+        <v>1527</v>
+      </c>
       <c r="C620" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B621" s="2" t="s">
+        <v>1529</v>
+      </c>
       <c r="C621" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C622" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D621" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E621" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" s="8"/>
+      <c r="B622" s="8"/>
+      <c r="C622" s="8"/>
+      <c r="D622" s="8"/>
+      <c r="E622" s="8"/>
+      <c r="F622" s="8"/>
+    </row>
+    <row r="623" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B623" s="2" t="s">
+        <v>1532</v>
+      </c>
       <c r="C623" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D623" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E623" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B624" s="2" t="s">
+        <v>1534</v>
+      </c>
       <c r="C624" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B625" s="2" t="s">
+        <v>1536</v>
+      </c>
       <c r="C625" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E625" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B626" s="2" t="s">
+        <v>1538</v>
+      </c>
       <c r="C626" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D626" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B627" s="2" t="s">
+        <v>1541</v>
+      </c>
       <c r="C627" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D627" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E627" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B628" s="2" t="s">
+        <v>1542</v>
+      </c>
       <c r="C628" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D628" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B629" s="2" t="s">
+        <v>1545</v>
+      </c>
       <c r="C629" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D629" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E629" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B630" s="2" t="s">
+        <v>1547</v>
+      </c>
       <c r="C630" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D630" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B631" s="2" t="s">
+        <v>1550</v>
+      </c>
       <c r="C631" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D631" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E631" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B632" s="2" t="s">
+        <v>1552</v>
+      </c>
       <c r="C632" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D632" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B633" s="2" t="s">
+        <v>1554</v>
+      </c>
       <c r="C633" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D633" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E633" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B634" s="2" t="s">
+        <v>1556</v>
+      </c>
       <c r="C634" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E634" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B635" s="2" t="s">
+        <v>1558</v>
+      </c>
       <c r="C635" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D635" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E635" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B636" s="2" t="s">
+        <v>1560</v>
+      </c>
       <c r="C636" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D636" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E636" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B637" s="2" t="s">
+        <v>1561</v>
+      </c>
       <c r="C637" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C638" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D637" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E637" s="5" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="8"/>
+      <c r="B638" s="8"/>
+      <c r="C638" s="8"/>
+      <c r="D638" s="8"/>
+      <c r="E638" s="8"/>
+      <c r="F638" s="8"/>
+    </row>
+    <row r="639" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B639" s="2" t="s">
+        <v>1563</v>
+      </c>
       <c r="C639" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+        <v>1564</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E639" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B640" s="2" t="s">
+        <v>1566</v>
+      </c>
       <c r="C640" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E640" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B641" s="2" t="s">
+        <v>1569</v>
+      </c>
       <c r="C641" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D641" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E641" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B642" s="2" t="s">
+        <v>1573</v>
+      </c>
       <c r="C642" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B643" s="2" t="s">
+        <v>1575</v>
+      </c>
       <c r="C643" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D643" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E643" s="5" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B644" s="2" t="s">
+        <v>1578</v>
+      </c>
       <c r="C644" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B645" s="2" t="s">
+        <v>1579</v>
+      </c>
       <c r="C645" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D645" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E645" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B646" s="2" t="s">
+        <v>1581</v>
+      </c>
       <c r="C646" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D646" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E646" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B647" s="2" t="s">
+        <v>1583</v>
+      </c>
       <c r="C647" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E647" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B648" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E648" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B649" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E649" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B650" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E650" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B651" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E651" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B652" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E652" s="5" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B653" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E653" s="5" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B654" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B655" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E655" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="8"/>
+      <c r="B656" s="8"/>
+      <c r="C656" s="8"/>
+      <c r="D656" s="8"/>
+      <c r="E656" s="8"/>
+      <c r="F656" s="8"/>
+    </row>
+    <row r="657" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B657" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E657" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="658" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B658" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E658" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="659" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B659" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E659" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="660" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B660" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E660" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="661" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B661" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E661" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="662" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B662" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E662" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="663" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B663" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E663" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="664" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B664" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="665" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B665" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E665" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="666" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B666" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E666" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="667" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B667" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E667" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F667" s="2" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="668" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B668" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="669" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B669" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E669" s="5" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="670" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B670" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E670" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="671" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B671" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E671" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="672" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B672" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="673" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B673" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="674" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B674" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="675" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B675" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E675" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="676" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B676" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E676" s="5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="677" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B677" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E677" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="678" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B678" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E678" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="679" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B679" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E679" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="680" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B680" s="2" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E680" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F680" s="2" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="681" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B681" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E681" s="5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="682" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B682" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E682" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="683" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B683" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E683" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="684" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B684" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E684" s="5" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="685" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B685" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E685" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F685" s="2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="686" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B686" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E686" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="687" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B687" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E687" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="688" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B688" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E688" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="689" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B689" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E689" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="690" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B690" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="691" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B691" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E691" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="692" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B692" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E692" s="5" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="693" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B693" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E693" s="5" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="694" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B694" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E694" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="695" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B695" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E695" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="696" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B696" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="697" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B697" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E697" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="698" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B698" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E698" s="5" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="699" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B699" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E699" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="700" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B700" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E700" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="701" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E701" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="702" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B702" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E702" s="5" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="703" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B703" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E703" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="704" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B704" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E704" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B705" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B706" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E706" s="5" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B707" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E707" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B708" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B709" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E709" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B710" s="2" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B711" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E711" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B712" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B713" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E713" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="8"/>
+      <c r="B714" s="8"/>
+      <c r="C714" s="8"/>
+      <c r="D714" s="8"/>
+      <c r="E714" s="8"/>
+      <c r="F714" s="8"/>
+    </row>
+    <row r="715" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B715" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E715" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B716" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E716" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" s="8"/>
+      <c r="B717" s="8"/>
+      <c r="C717" s="8"/>
+      <c r="D717" s="8"/>
+      <c r="E717" s="8"/>
+      <c r="F717" s="8"/>
+    </row>
+    <row r="718" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B718" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E718" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B719" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E719" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B720" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E720" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="721" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B721" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E721" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="722" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B722" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E722" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="723" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B723" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E723" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="724" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B724" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E724" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="725" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B725" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E725" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="726" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B726" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E726" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="727" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B727" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E727" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="728" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B728" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E728" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="729" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B729" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E729" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="730" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B730" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E730" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="731" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B731" s="2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="732" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B732" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E732" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="733" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B733" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E733" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="734" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B734" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E734" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="735" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B735" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E735" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="736" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B736" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E736" s="5" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="737" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B737" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E737" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="738" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B738" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E738" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="739" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B739" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E739" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="740" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B740" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E740" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="741" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B741" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E741" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="742" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B742" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E742" s="5" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="743" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B743" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E743" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="744" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B744" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E744" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="745" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B745" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="746" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B746" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E746" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="747" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B747" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E747" s="5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="748" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B748" s="2" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E748" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="749" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B749" s="2" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E749" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="750" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B750" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E750" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="751" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B751" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E751" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="752" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B752" s="2" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E752" s="5" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="753" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B753" s="2" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E753" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="754" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B754" s="2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E754" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F754" s="2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="755" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B755" s="2" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E755" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="756" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B756" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E756" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="757" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B757" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E757" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F757" s="2" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="758" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B758" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E758" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="759" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B759" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E759" s="5" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="760" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B760" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E760" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F760" s="2" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="761" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B761" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E761" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="762" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B762" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E762" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="763" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B763" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E763" s="5" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="764" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B764" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E764" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="765" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B765" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E765" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="766" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B766" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E766" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="767" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B767" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="E767" s="5" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="768" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B768" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E768" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B769" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E769" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F769" s="2" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B770" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="E770" s="5" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B771" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E771" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B772" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E772" s="5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B773" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E773" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B774" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E774" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B775" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E775" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F775" s="2" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="8"/>
+      <c r="B776" s="8"/>
+      <c r="C776" s="8"/>
+      <c r="D776" s="8"/>
+      <c r="E776" s="8"/>
+      <c r="F776" s="8"/>
+    </row>
+    <row r="777" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B777" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E777" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B778" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D778" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="E778" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B779" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D779" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E779" s="5" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B780" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D780" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E780" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F780" s="2" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B781" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D781" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E781" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B782" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D782" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E782" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F782" s="2" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B783" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D783" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E783" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B784" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D784" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E784" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B785" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E785" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="786" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B786" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E786" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="787" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B787" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D787" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E787" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="788" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B788" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D788" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E788" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="789" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B789" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E789" s="5" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="790" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B790" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C790" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E790" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="791" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B791" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C791" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E791" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F791" s="2" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="792" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B792" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C792" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D792" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E792" s="5" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="793" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B793" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C793" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D793" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E793" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F793" s="2" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="794" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B794" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C794" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E794" s="5" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="795" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B795" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C795" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E795" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F795" s="2" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="796" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B796" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C796" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E796" s="5" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="797" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B797" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C797" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D797" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E797" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="798" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B798" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C798" s="2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D798" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E798" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F798" s="2" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="799" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B799" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C799" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E799" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F799" s="2" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="800" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B800" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C800" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E800" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F800" s="2" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B801" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C801" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D801" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E801" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B802" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C802" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E802" s="5" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B803" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C803" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E803" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F803" s="2" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B804" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C804" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E804" s="5" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B805" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C805" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E805" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F805" s="2" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="8"/>
+      <c r="B806" s="8"/>
+      <c r="C806" s="8"/>
+      <c r="D806" s="8"/>
+      <c r="E806" s="8"/>
+      <c r="F806" s="8"/>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B807" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E807" s="5" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B808" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E808" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="8"/>
+      <c r="B809" s="8"/>
+      <c r="C809" s="8"/>
+      <c r="D809" s="8"/>
+      <c r="E809" s="8"/>
+      <c r="F809" s="8"/>
+    </row>
+    <row r="810" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B810" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E810" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F810" s="2" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E811" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B812" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C812" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E812" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B813" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C813" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E813" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B814" s="2" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C814" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E814" s="5" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B815" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C815" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E815" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F815" s="2" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B816" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C816" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E816" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="817" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B817" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C817" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E817" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F817" s="2" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="818" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B818" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C818" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E818" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F818" s="2" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="819" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B819" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C819" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E819" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F819" s="2" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="820" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B820" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C820" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E820" s="5" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="821" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="2" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C821" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E821" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="822" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B822" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C822" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E822" s="5" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="823" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B823" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C823" s="2" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E823" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="824" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B824" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C824" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E824" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F824" s="2" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="825" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B825" s="2" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C825" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E825" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F825" s="2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="826" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B826" s="2" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C826" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E826" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F826" s="2" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="827" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B827" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C827" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E827" s="5" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="828" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B828" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C828" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E828" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="829" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B829" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C829" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E829" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="830" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B830" s="2" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C830" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E830" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="831" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B831" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C831" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E831" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="832" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B832" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C832" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E832" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B833" s="2" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C833" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E833" s="5" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B834" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C834" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E834" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B835" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C835" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E835" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F835" s="2" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B836" s="2" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C836" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E836" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B837" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C837" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E837" s="5" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B838" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E838" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F838" s="2" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B839" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C839" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E839" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B840" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E840" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="8"/>
+      <c r="B841" s="8"/>
+      <c r="C841" s="8"/>
+      <c r="D841" s="8"/>
+      <c r="E841" s="8"/>
+      <c r="F841" s="8"/>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B842" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E842" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B843" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C843" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E843" s="5" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B844" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C844" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E844" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B845" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C845" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E845" s="5" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B846" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C846" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E846" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F846" s="2" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B847" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C847" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E847" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B848" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C848" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E848" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="849" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B849" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C849" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E849" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="850" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B850" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C850" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E850" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="851" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B851" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C851" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E851" s="5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F851" s="2" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="852" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B852" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E852" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="853" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B853" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E853" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="854" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B854" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C854" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E854" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="855" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B855" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C855" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E855" s="5" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="856" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B856" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C856" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E856" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F856" s="2" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="857" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B857" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E857" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F857" s="2" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="858" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B858" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E858" s="5" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F858" s="2" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="859" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B859" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E859" s="5" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="860" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B860" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E860" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="861" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B861" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E861" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F861" s="2" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="862" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B862" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E862" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="863" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B863" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E863" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="864" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B864" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E864" s="5" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B865" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E865" s="5" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B866" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E866" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B867" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E867" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B868" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C868" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E868" s="5" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B869" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E869" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B870" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E870" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B871" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E871" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B872" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E872" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B873" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C873" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E873" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" s="8"/>
+      <c r="B874" s="8"/>
+      <c r="C874" s="8"/>
+      <c r="D874" s="8"/>
+      <c r="E874" s="8"/>
+      <c r="F874" s="8"/>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B875" s="2" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E875" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" s="8"/>
+      <c r="B876" s="8"/>
+      <c r="C876" s="8"/>
+      <c r="D876" s="8"/>
+      <c r="E876" s="8"/>
+      <c r="F876" s="8"/>
+    </row>
+    <row r="877" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B877" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E877" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B878" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E878" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B879" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E879" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F879" s="2" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B880" s="2" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E880" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="8"/>
+      <c r="B881" s="8"/>
+      <c r="C881" s="8"/>
+      <c r="D881" s="8"/>
+      <c r="E881" s="8"/>
+      <c r="F881" s="8"/>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B882" s="2" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E882" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B883" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E883" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B884" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E884" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B885" s="2" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E885" s="5" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B886" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E886" s="5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B887" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C887" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E887" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F887" s="2" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B888" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E888" s="5" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B889" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E889" s="5" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B890" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E890" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B891" s="2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E891" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B892" s="2" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E892" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B893" s="2" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E893" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F893" s="2" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B894" s="2" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E894" s="5" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B895" s="2" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E895" s="5" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B896" s="2" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E896" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C897" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C898" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C899" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C900" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C901" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C902" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C903" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C904" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C905" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C906" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C908" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C909" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C910" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C911" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C912" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C913" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C914" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C915" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C916" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C917" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C918" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C919" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C920" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C921" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C922" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C923" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C924" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C925" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C926" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C927" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C928" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C929" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C930" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C931" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C932" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C933" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C934" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C935" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C936" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C937" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C938" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C939" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C940" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C941" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="A876:F876"/>
+    <mergeCell ref="A881:F881"/>
+    <mergeCell ref="A776:F776"/>
+    <mergeCell ref="A806:F806"/>
+    <mergeCell ref="A809:F809"/>
+    <mergeCell ref="A841:F841"/>
+    <mergeCell ref="A874:F874"/>
+    <mergeCell ref="A714:F714"/>
+    <mergeCell ref="A717:F717"/>
     <mergeCell ref="A503:F503"/>
     <mergeCell ref="A568:F568"/>
+    <mergeCell ref="A622:F622"/>
+    <mergeCell ref="A638:F638"/>
+    <mergeCell ref="A656:F656"/>
     <mergeCell ref="A404:F404"/>
     <mergeCell ref="A407:F407"/>
     <mergeCell ref="A444:F444"/>
